--- a/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
+++ b/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sili Fan\Desktop\WORK\WCMC\projects\mx 274941 Francisco Portell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sili Fan\Documents\GitHub\MetaBoxDiv2\data\two independent group\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9249"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14726"/>
   </bookViews>
   <sheets>
     <sheet name="submit" sheetId="5" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>KEGG</t>
   </si>
   <si>
-    <t>PubChem</t>
-  </si>
-  <si>
     <t>InChI Key</t>
   </si>
   <si>
@@ -3471,6 +3468,9 @@
   </si>
   <si>
     <t>sampleID</t>
+  </si>
+  <si>
+    <t>PubChem_id</t>
   </si>
 </sst>
 </file>
@@ -3696,6 +3696,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3731,6 +3748,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3886,7 +3920,7 @@
   <dimension ref="A1:Z598"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Z2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3898,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J1" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -3951,7 +3985,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J2" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4011,55 +4045,55 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
@@ -4071,7 +4105,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K4" s="5">
         <v>274942</v>
@@ -4131,7 +4165,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K5" s="5">
         <v>274943</v>
@@ -4191,55 +4225,55 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="6" t="s">
+      <c r="W6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
@@ -4251,55 +4285,55 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
@@ -4311,55 +4345,55 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="L8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
@@ -4371,87 +4405,87 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="W9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Y9" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>1142</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B10" t="s">
         <v>1146</v>
       </c>
-      <c r="B10" t="s">
-        <v>1147</v>
-      </c>
       <c r="C10" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>1109</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>1110</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4478,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11">
         <v>553450</v>
@@ -4490,16 +4524,16 @@
         <v>31632</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="I11" s="11">
         <v>439205</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7">
         <v>915</v>
@@ -4558,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D12" s="11">
         <v>590775</v>
@@ -4570,16 +4604,16 @@
         <v>17400</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="I12" s="11">
         <v>10264</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7">
         <v>615</v>
@@ -4638,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11">
         <v>567437</v>
@@ -4650,16 +4684,16 @@
         <v>5857</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="11">
         <v>6912</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7">
         <v>2554</v>
@@ -4718,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="11">
         <v>701688</v>
@@ -4730,16 +4764,16 @@
         <v>1669</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="I14" s="11">
         <v>1188</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7">
         <v>450</v>
@@ -4798,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
         <v>313502</v>
@@ -4810,16 +4844,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2">
         <v>6287</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7">
         <v>165828</v>
@@ -4878,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>861508</v>
@@ -4890,16 +4924,16 @@
         <v>14815</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2">
         <v>6029</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7">
         <v>1610</v>
@@ -4958,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11">
         <v>385735</v>
@@ -4970,16 +5004,16 @@
         <v>1664</v>
       </c>
       <c r="G17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="I17" s="11">
         <v>1174</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7">
         <v>7850</v>
@@ -5038,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="11">
         <v>587601</v>
@@ -5050,16 +5084,16 @@
         <v>7831</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="I18" s="11">
         <v>17473</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7">
         <v>2985</v>
@@ -5118,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2">
         <v>627437</v>
@@ -5130,16 +5164,16 @@
         <v>42230</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2">
         <v>445675</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7">
         <v>48793</v>
@@ -5198,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2">
         <v>671252</v>
@@ -5210,16 +5244,16 @@
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2">
         <v>6057</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7">
         <v>252946</v>
@@ -5278,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D21" s="11">
         <v>780482</v>
@@ -5290,16 +5324,16 @@
         <v>14</v>
       </c>
       <c r="G21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="I21" s="11">
         <v>6305</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7">
         <v>97062</v>
@@ -5358,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D22" s="2">
         <v>459475</v>
@@ -5370,7 +5404,7 @@
         <v>169618</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>0</v>
@@ -5379,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7">
         <v>11261</v>
@@ -5438,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="11">
         <v>1067809</v>
@@ -5450,16 +5484,16 @@
         <v>100</v>
       </c>
       <c r="G23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="I23" s="11">
         <v>638015</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="7">
         <v>1429</v>
@@ -5518,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="11">
         <v>420133</v>
@@ -5530,16 +5564,16 @@
         <v>1692</v>
       </c>
       <c r="G24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="I24" s="11">
         <v>1135</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="7">
         <v>583</v>
@@ -5598,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2">
         <v>409568</v>
@@ -5610,16 +5644,16 @@
         <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="2">
         <v>6288</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7">
         <v>188073</v>
@@ -5678,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="11">
         <v>497572</v>
@@ -5690,16 +5724,16 @@
         <v>172</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="I26" s="11">
         <v>5460407</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7">
         <v>1939</v>
@@ -5758,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="11">
         <v>556690</v>
@@ -5770,16 +5804,16 @@
         <v>411</v>
       </c>
       <c r="G27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="I27" s="11">
         <v>1123</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K27" s="7">
         <v>8422</v>
@@ -5838,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="11">
         <v>912704</v>
@@ -5850,16 +5884,16 @@
         <v>16661</v>
       </c>
       <c r="G28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="I28" s="11">
         <v>5988</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7">
         <v>513</v>
@@ -5918,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="11">
         <v>370608</v>
@@ -5930,16 +5964,16 @@
         <v>161</v>
       </c>
       <c r="G29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="I29" s="11">
         <v>1110</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7">
         <v>22043</v>
@@ -5998,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="11">
         <v>787622</v>
@@ -6010,16 +6044,16 @@
         <v>13</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="I30" s="11">
         <v>5281</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7">
         <v>542672</v>
@@ -6078,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D31" s="2">
         <v>929702</v>
@@ -6090,7 +6124,7 @@
         <v>113548</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>0</v>
@@ -6158,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="2">
         <v>792924</v>
@@ -6170,16 +6204,16 @@
         <v>1714</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I32" s="2">
         <v>1102</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" s="7">
         <v>35327</v>
@@ -6238,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="11">
         <v>667922</v>
@@ -6250,16 +6284,16 @@
         <v>162</v>
       </c>
       <c r="G33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="I33" s="11">
         <v>5780</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7">
         <v>26810</v>
@@ -6318,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2">
         <v>395020</v>
@@ -6330,16 +6364,16 @@
         <v>25</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34" s="2">
         <v>5951</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K34" s="7">
         <v>204727</v>
@@ -6398,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="11">
         <v>480699</v>
@@ -6410,16 +6444,16 @@
         <v>3063</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="I35" s="11">
         <v>338</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K35" s="7">
         <v>220</v>
@@ -6478,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="11">
         <v>735908</v>
@@ -6490,16 +6524,16 @@
         <v>42027</v>
       </c>
       <c r="G36" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="I36" s="11">
         <v>439184</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K36" s="7">
         <v>635</v>
@@ -6558,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="11">
         <v>553135</v>
@@ -6570,16 +6604,16 @@
         <v>1662</v>
       </c>
       <c r="G37" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="I37" s="11">
         <v>5779</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K37" s="7">
         <v>2687</v>
@@ -6638,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D38" s="11">
         <v>597646</v>
@@ -6650,16 +6684,16 @@
         <v>84543</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I38" s="11">
         <v>5460677</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7">
         <v>320</v>
@@ -6718,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="11">
         <v>575497</v>
@@ -6730,16 +6764,16 @@
         <v>7362</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="I39" s="11">
         <v>827</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="7">
         <v>3907</v>
@@ -6798,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="11">
         <v>213805</v>
@@ -6810,16 +6844,16 @@
         <v>5864</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="I40" s="11">
         <v>1060</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K40" s="7">
         <v>14933</v>
@@ -6878,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41" s="11">
         <v>394886</v>
@@ -6890,16 +6924,16 @@
         <v>483</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="I41" s="11">
         <v>12473</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K41" s="7">
         <v>1694</v>
@@ -6958,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D42" s="2">
         <v>327517</v>
@@ -6970,16 +7004,16 @@
         <v>88181</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I42" s="2">
         <v>1023</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K42" s="7">
         <v>3417342</v>
@@ -7038,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="11">
         <v>825754</v>
@@ -7050,16 +7084,16 @@
         <v>2550</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="I43" s="11">
         <v>1051</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" s="7">
         <v>268</v>
@@ -7118,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="2">
         <v>588119</v>
@@ -7130,16 +7164,16 @@
         <v>21703</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I44" s="2">
         <v>1049</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K44" s="7">
         <v>75502</v>
@@ -7198,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" s="11">
         <v>813899</v>
@@ -7210,16 +7244,16 @@
         <v>1688</v>
       </c>
       <c r="G45" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="I45" s="11">
         <v>15047</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K45" s="7">
         <v>1339</v>
@@ -7278,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="11">
         <v>364716</v>
@@ -7290,16 +7324,16 @@
         <v>8</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="I46" s="11">
         <v>145742</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K46" s="7">
         <v>294154</v>
@@ -7358,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="11">
         <v>603912</v>
@@ -7370,16 +7404,16 @@
         <v>1723</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="I47" s="11">
         <v>1015</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K47" s="7">
         <v>15799</v>
@@ -7438,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="11">
         <v>518184</v>
@@ -7450,7 +7484,7 @@
         <v>1685</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>0</v>
@@ -7518,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="11">
         <v>348274</v>
@@ -7530,16 +7564,16 @@
         <v>34092</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="I49" s="11">
         <v>1004</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K49" s="7">
         <v>503753</v>
@@ -7598,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50" s="2">
         <v>537804</v>
@@ -7610,16 +7644,16 @@
         <v>33</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I50" s="2">
         <v>6140</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K50" s="7">
         <v>147870</v>
@@ -7678,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="11">
         <v>596671</v>
@@ -7690,7 +7724,7 @@
         <v>14734</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>0</v>
@@ -7699,7 +7733,7 @@
         <v>10264</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51" s="7">
         <v>483</v>
@@ -7758,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="11">
         <v>674647</v>
@@ -7770,16 +7804,16 @@
         <v>1680</v>
       </c>
       <c r="G52" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="I52" s="11">
         <v>13849</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" s="7">
         <v>4908</v>
@@ -7838,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="11">
         <v>399229</v>
@@ -7850,16 +7884,16 @@
         <v>50</v>
       </c>
       <c r="G53" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="I53" s="11">
         <v>8158</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" s="7">
         <v>9586</v>
@@ -7918,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="11">
         <v>464991</v>
@@ -7930,16 +7964,16 @@
         <v>4944</v>
       </c>
       <c r="G54" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="I54" s="11">
         <v>67126</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K54" s="7">
         <v>1331</v>
@@ -7998,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="11">
         <v>690887</v>
@@ -8010,16 +8044,16 @@
         <v>31356</v>
       </c>
       <c r="G55" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="I55" s="11">
         <v>6613</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K55" s="7">
         <v>11238</v>
@@ -8078,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D56" s="11">
         <v>704511</v>
@@ -8090,16 +8124,16 @@
         <v>31379</v>
       </c>
       <c r="G56" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="I56" s="11">
         <v>445638</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K56" s="7">
         <v>291</v>
@@ -8158,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="11">
         <v>713809</v>
@@ -8170,16 +8204,16 @@
         <v>11</v>
       </c>
       <c r="G57" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I57" s="11">
         <v>985</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K57" s="7">
         <v>61039</v>
@@ -8238,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="11">
         <v>485935</v>
@@ -8250,16 +8284,16 @@
         <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="I58" s="11">
         <v>7405</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K58" s="7">
         <v>3090478</v>
@@ -8318,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D59" s="2">
         <v>594878</v>
@@ -8330,16 +8364,16 @@
         <v>46419</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I59" s="2">
         <v>6262</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K59" s="7">
         <v>38552</v>
@@ -8398,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D60" s="11">
         <v>624355</v>
@@ -8410,16 +8444,16 @@
         <v>131114</v>
       </c>
       <c r="G60" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="I60" s="11">
         <v>57689797</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K60" s="7">
         <v>453</v>
@@ -8478,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" s="11">
         <v>779120</v>
@@ -8490,16 +8524,16 @@
         <v>43</v>
       </c>
       <c r="G61" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="I61" s="11">
         <v>445639</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K61" s="7">
         <v>3149</v>
@@ -8558,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="11">
         <v>849710</v>
@@ -8570,16 +8604,16 @@
         <v>20961</v>
       </c>
       <c r="G62" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="I62" s="11">
         <v>5283387</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K62" s="7">
         <v>3907</v>
@@ -8638,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63" s="11">
         <v>928878</v>
@@ -8650,16 +8684,16 @@
         <v>104598</v>
       </c>
       <c r="G63" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="K63" s="7">
         <v>1076</v>
@@ -8718,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="11">
         <v>755409</v>
@@ -8730,7 +8764,7 @@
         <v>997</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>0</v>
@@ -8739,7 +8773,7 @@
         <v>8221</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K64" s="7">
         <v>383</v>
@@ -8798,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D65" s="11">
         <v>455629</v>
@@ -8810,16 +8844,16 @@
         <v>17431</v>
       </c>
       <c r="G65" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="I65" s="11">
         <v>439377</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K65" s="7">
         <v>1598</v>
@@ -8878,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D66" s="11">
         <v>285825</v>
@@ -8890,16 +8924,16 @@
         <v>160842</v>
       </c>
       <c r="G66" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="I66" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="K66" s="7">
         <v>2550</v>
@@ -8958,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D67" s="11">
         <v>471602</v>
@@ -8970,16 +9004,16 @@
         <v>84542</v>
       </c>
       <c r="G67" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H67" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="I67" s="11">
         <v>936</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K67" s="7">
         <v>12783</v>
@@ -9038,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" s="11">
         <v>477776</v>
@@ -9050,16 +9084,16 @@
         <v>84199</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I68" s="11">
         <v>70914</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K68" s="7">
         <v>3845</v>
@@ -9118,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D69" s="11">
         <v>726375</v>
@@ -9130,7 +9164,7 @@
         <v>17533</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>0</v>
@@ -9198,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D70" s="11">
         <v>746341</v>
@@ -9210,16 +9244,16 @@
         <v>1674</v>
       </c>
       <c r="G70" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="I70" s="11">
         <v>24139</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K70" s="7">
         <v>450</v>
@@ -9278,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2">
         <v>723255</v>
@@ -9290,7 +9324,7 @@
         <v>110343</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>0</v>
@@ -9358,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D72" s="11">
         <v>548028</v>
@@ -9370,16 +9404,16 @@
         <v>4081</v>
       </c>
       <c r="G72" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="I72" s="11">
         <v>65065</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K72" s="7">
         <v>1475</v>
@@ -9438,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D73" s="11">
         <v>634414</v>
@@ -9450,16 +9484,16 @@
         <v>127</v>
       </c>
       <c r="G73" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="I73" s="11">
         <v>11005</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K73" s="7">
         <v>3410</v>
@@ -9518,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D74" s="11">
         <v>730022</v>
@@ -9530,16 +9564,16 @@
         <v>1741</v>
       </c>
       <c r="G74" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H74" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="I74" s="11">
         <v>892</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K74" s="7">
         <v>1014368</v>
@@ -9598,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D75" s="11">
         <v>605401</v>
@@ -9610,16 +9644,16 @@
         <v>1689</v>
       </c>
       <c r="G75" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="I75" s="11">
         <v>158980</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K75" s="7">
         <v>2136</v>
@@ -9678,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D76" s="11">
         <v>483560</v>
@@ -9690,16 +9724,16 @@
         <v>45</v>
       </c>
       <c r="G76" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H76" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="I76" s="11">
         <v>6137</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K76" s="7">
         <v>29649</v>
@@ -9758,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D77" s="11">
         <v>289520</v>
@@ -9770,7 +9804,7 @@
         <v>5393</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>0</v>
@@ -9779,7 +9813,7 @@
         <v>13130</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K77" s="7">
         <v>10475</v>
@@ -9838,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D78" s="11">
         <v>663215</v>
@@ -9850,16 +9884,16 @@
         <v>17883</v>
       </c>
       <c r="G78" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="I78" s="11">
         <v>6251</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K78" s="7">
         <v>3220</v>
@@ -9918,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D79" s="11">
         <v>1176044</v>
@@ -9930,16 +9964,16 @@
         <v>84521</v>
       </c>
       <c r="G79" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="I79" s="11">
         <v>439586</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K79" s="7">
         <v>437</v>
@@ -9998,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D80" s="2">
         <v>946601</v>
@@ -10010,16 +10044,16 @@
         <v>1979</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I80" s="2">
         <v>439186</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K80" s="7">
         <v>1673</v>
@@ -10078,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81" s="11">
         <v>463180</v>
@@ -10090,16 +10124,16 @@
         <v>1391</v>
       </c>
       <c r="G81" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="I81" s="11">
         <v>525</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K81" s="7">
         <v>44923</v>
@@ -10158,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="11">
         <v>363611</v>
@@ -10170,16 +10204,16 @@
         <v>14714</v>
       </c>
       <c r="G82" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H82" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="I82" s="11">
         <v>444266</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K82" s="7">
         <v>399</v>
@@ -10238,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D83" s="11">
         <v>573587</v>
@@ -10250,16 +10284,16 @@
         <v>233</v>
       </c>
       <c r="G83" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="I83" s="11">
         <v>439255</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K83" s="7">
         <v>8222</v>
@@ -10318,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D84" s="11">
         <v>663483</v>
@@ -10330,16 +10364,16 @@
         <v>12</v>
       </c>
       <c r="G84" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H84" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="I84" s="11">
         <v>5962</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K84" s="7">
         <v>93941</v>
@@ -10398,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="11">
         <v>777414</v>
@@ -10410,16 +10444,16 @@
         <v>165</v>
       </c>
       <c r="G85" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="I85" s="11">
         <v>5280450</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K85" s="7">
         <v>265</v>
@@ -10478,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D86" s="11">
         <v>978597</v>
@@ -10490,16 +10524,16 @@
         <v>104210</v>
       </c>
       <c r="G86" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H86" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>318</v>
       </c>
       <c r="I86" s="11">
         <v>11197</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K86" s="7">
         <v>981</v>
@@ -10558,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D87" s="11">
         <v>569637</v>
@@ -10570,7 +10604,7 @@
         <v>3169</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>0</v>
@@ -10579,7 +10613,7 @@
         <v>2724705</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K87" s="7">
         <v>567</v>
@@ -10638,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D88" s="11">
         <v>346101</v>
@@ -10650,16 +10684,16 @@
         <v>9</v>
       </c>
       <c r="G88" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H88" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="I88" s="11">
         <v>6106</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K88" s="7">
         <v>110543</v>
@@ -10718,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D89" s="11">
         <v>547840</v>
@@ -10730,16 +10764,16 @@
         <v>14728</v>
       </c>
       <c r="G89" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="I89" s="11">
         <v>3893</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K89" s="7">
         <v>15067</v>
@@ -10798,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D90" s="11">
         <v>929908</v>
@@ -10810,16 +10844,16 @@
         <v>6432</v>
       </c>
       <c r="G90" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H90" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>332</v>
       </c>
       <c r="I90" s="11">
         <v>11333</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K90" s="7">
         <v>440</v>
@@ -10878,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D91" s="11">
         <v>935640</v>
@@ -10890,16 +10924,16 @@
         <v>4771</v>
       </c>
       <c r="G91" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H91" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="I91" s="11">
         <v>440995</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K91" s="7">
         <v>400</v>
@@ -10958,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92" s="11">
         <v>959541</v>
@@ -10970,16 +11004,16 @@
         <v>62247</v>
       </c>
       <c r="G92" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="I92" s="11">
         <v>157355</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K92" s="7">
         <v>321</v>
@@ -11038,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D93" s="11">
         <v>217657</v>
@@ -11050,16 +11084,16 @@
         <v>80</v>
       </c>
       <c r="G93" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="I93" s="11">
         <v>612</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K93" s="7">
         <v>369139</v>
@@ -11118,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D94" s="11">
         <v>265698</v>
@@ -11130,7 +11164,7 @@
         <v>415</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>0</v>
@@ -11139,7 +11173,7 @@
         <v>94220</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K94" s="7">
         <v>698</v>
@@ -11198,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D95" s="11">
         <v>489385</v>
@@ -11210,16 +11244,16 @@
         <v>1679</v>
       </c>
       <c r="G95" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H95" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="I95" s="11">
         <v>151152</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K95" s="7">
         <v>5240</v>
@@ -11278,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D96" s="11">
         <v>464779</v>
@@ -11290,16 +11324,16 @@
         <v>16903</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I96" s="11">
         <v>169019</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K96" s="7">
         <v>3693</v>
@@ -11358,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D97" s="2">
         <v>359251</v>
@@ -11370,16 +11404,16 @@
         <v>15</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I97" s="2">
         <v>6306</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K97" s="7">
         <v>258551</v>
@@ -11438,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D98" s="11">
         <v>698302</v>
@@ -11450,7 +11484,7 @@
         <v>100866</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>0</v>
@@ -11459,7 +11493,7 @@
         <v>604</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K98" s="7">
         <v>1830</v>
@@ -11518,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D99" s="11">
         <v>616323</v>
@@ -11530,16 +11564,16 @@
         <v>12267</v>
       </c>
       <c r="G99" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H99" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>362</v>
       </c>
       <c r="I99" s="11">
         <v>5318532</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K99" s="7">
         <v>1299</v>
@@ -11598,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D100" s="11">
         <v>845976</v>
@@ -11610,16 +11644,16 @@
         <v>4759</v>
       </c>
       <c r="G100" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="I100" s="11">
         <v>440043</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K100" s="7">
         <v>2563</v>
@@ -11678,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D101" s="11">
         <v>1018687</v>
@@ -11690,16 +11724,16 @@
         <v>68093</v>
       </c>
       <c r="G101" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="I101" s="11">
         <v>8582</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K101" s="7">
         <v>538</v>
@@ -11758,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D102" s="11">
         <v>897184</v>
@@ -11770,16 +11804,16 @@
         <v>1728</v>
       </c>
       <c r="G102" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H102" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="I102" s="11">
         <v>6021</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K102" s="7">
         <v>7354</v>
@@ -11838,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D103" s="11">
         <v>619128</v>
@@ -11850,16 +11884,16 @@
         <v>1663</v>
       </c>
       <c r="G103" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H103" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="I103" s="11">
         <v>790</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K103" s="7">
         <v>9358</v>
@@ -11918,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D104" s="11">
         <v>253158</v>
@@ -11930,16 +11964,16 @@
         <v>4211</v>
       </c>
       <c r="G104" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H104" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="I104" s="11">
         <v>787</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K104" s="7">
         <v>13730</v>
@@ -11998,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D105" s="11">
         <v>443878</v>
@@ -12010,16 +12044,16 @@
         <v>2849</v>
       </c>
       <c r="G105" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H105" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="I105" s="11">
         <v>12647</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K105" s="7">
         <v>417</v>
@@ -12078,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D106" s="11">
         <v>664395</v>
@@ -12090,16 +12124,16 @@
         <v>58170</v>
       </c>
       <c r="G106" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H106" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="I106" s="11">
         <v>6274</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K106" s="7">
         <v>18643</v>
@@ -12158,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D107" s="11">
         <v>673957</v>
@@ -12170,16 +12204,16 @@
         <v>14775</v>
       </c>
       <c r="G107" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="K107" s="7">
         <v>1598</v>
@@ -12238,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D108" s="2">
         <v>831123</v>
@@ -12250,16 +12284,16 @@
         <v>62349</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I108" s="2">
         <v>208</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K108" s="7">
         <v>1421</v>
@@ -12318,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D109" s="11">
         <v>704741</v>
@@ -12330,16 +12364,16 @@
         <v>255</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I109" s="11">
         <v>453</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K109" s="7">
         <v>35920</v>
@@ -12398,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D110" s="11">
         <v>715462</v>
@@ -12410,7 +12444,7 @@
         <v>14761</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>0</v>
@@ -12478,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D111" s="11">
         <v>867593</v>
@@ -12490,16 +12524,16 @@
         <v>100721</v>
       </c>
       <c r="G111" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="K111" s="7">
         <v>2646</v>
@@ -12558,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D112" s="11">
         <v>751309</v>
@@ -12570,7 +12604,7 @@
         <v>727</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>0</v>
@@ -12579,7 +12613,7 @@
         <v>10465</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K112" s="7">
         <v>6780</v>
@@ -12638,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D113" s="2">
         <v>954962</v>
@@ -12650,16 +12684,16 @@
         <v>1966</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="I113" s="2">
         <v>6802</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K113" s="7">
         <v>2367</v>
@@ -12718,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D114" s="11">
         <v>744307</v>
@@ -12730,16 +12764,16 @@
         <v>2519</v>
       </c>
       <c r="G114" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="H114" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="I114" s="11">
         <v>764</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K114" s="7">
         <v>1683</v>
@@ -12798,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D115" s="11">
         <v>227636</v>
@@ -12810,16 +12844,16 @@
         <v>1971</v>
       </c>
       <c r="G115" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H115" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="I115" s="11">
         <v>757</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K115" s="7">
         <v>795</v>
@@ -12878,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D116" s="2">
         <v>368707</v>
@@ -12890,16 +12924,16 @@
         <v>6</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I116" s="2">
         <v>750</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K116" s="7">
         <v>537194</v>
@@ -12958,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D117" s="11">
         <v>590747</v>
@@ -12970,16 +13004,16 @@
         <v>1687</v>
       </c>
       <c r="G117" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="H117" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="I117" s="11">
         <v>754</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K117" s="7">
         <v>40305</v>
@@ -13038,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D118" s="11">
         <v>805227</v>
@@ -13050,16 +13084,16 @@
         <v>1693</v>
       </c>
       <c r="G118" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="H118" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>430</v>
       </c>
       <c r="I118" s="11">
         <v>16048618</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K118" s="7">
         <v>263</v>
@@ -13118,7 +13152,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D119" s="11">
         <v>344466</v>
@@ -13130,16 +13164,16 @@
         <v>30</v>
       </c>
       <c r="G119" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H119" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="I119" s="11">
         <v>753</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K119" s="7">
         <v>155094</v>
@@ -13198,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D120" s="11">
         <v>377495</v>
@@ -13210,16 +13244,16 @@
         <v>48</v>
       </c>
       <c r="G120" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H120" s="12" t="s">
         <v>437</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>438</v>
       </c>
       <c r="I120" s="11">
         <v>439194</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K120" s="7">
         <v>3353</v>
@@ -13278,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D121" s="11">
         <v>421260</v>
@@ -13290,16 +13324,16 @@
         <v>1727</v>
       </c>
       <c r="G121" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="H121" s="12" t="s">
         <v>441</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>442</v>
       </c>
       <c r="I121" s="11">
         <v>743</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K121" s="7">
         <v>129</v>
@@ -13358,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D122" s="2">
         <v>600315</v>
@@ -13370,16 +13404,16 @@
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I122" s="2">
         <v>5961</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K122" s="7">
         <v>16248</v>
@@ -13438,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D123" s="2">
         <v>489240</v>
@@ -13450,16 +13484,16 @@
         <v>62245</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I123" s="2">
         <v>33032</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K123" s="7">
         <v>2902467</v>
@@ -13518,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D124" s="11">
         <v>812757</v>
@@ -13530,16 +13564,16 @@
         <v>62248</v>
       </c>
       <c r="G124" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="H124" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="I124" s="11">
         <v>439427</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K124" s="7">
         <v>1334</v>
@@ -13598,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D125" s="11">
         <v>594647</v>
@@ -13610,16 +13644,16 @@
         <v>3167</v>
       </c>
       <c r="G125" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="H125" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>460</v>
       </c>
       <c r="I125" s="11">
         <v>65533</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K125" s="7">
         <v>9688</v>
@@ -13678,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D126" s="2">
         <v>659798</v>
@@ -13690,16 +13724,16 @@
         <v>22</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I126" s="2">
         <v>64689</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K126" s="7">
         <v>8969</v>
@@ -13758,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" s="11">
         <v>828606</v>
@@ -13770,16 +13804,16 @@
         <v>3191</v>
       </c>
       <c r="G127" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="H127" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="I127" s="11">
         <v>5459879</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K127" s="7">
         <v>736</v>
@@ -13838,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D128" s="11">
         <v>678231</v>
@@ -13850,16 +13884,16 @@
         <v>100864</v>
       </c>
       <c r="G128" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H128" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>467</v>
       </c>
       <c r="I128" s="11">
         <v>441476</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K128" s="7">
         <v>3109</v>
@@ -13918,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D129" s="11">
         <v>828102</v>
@@ -13930,16 +13964,16 @@
         <v>84204</v>
       </c>
       <c r="G129" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H129" s="12" t="s">
         <v>469</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>470</v>
       </c>
       <c r="I129" s="11">
         <v>439404</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K129" s="7">
         <v>213</v>
@@ -13998,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D130" s="11">
         <v>648756</v>
@@ -14010,16 +14044,16 @@
         <v>16668</v>
       </c>
       <c r="G130" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="H130" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>474</v>
       </c>
       <c r="I130" s="11">
         <v>439357</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K130" s="7">
         <v>25667</v>
@@ -14078,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D131" s="2">
         <v>1000661</v>
@@ -14090,16 +14124,16 @@
         <v>16798</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I131" s="2">
         <v>11727586</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K131" s="7">
         <v>1854</v>
@@ -14158,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D132" s="11">
         <v>390016</v>
@@ -14170,16 +14204,16 @@
         <v>14755</v>
       </c>
       <c r="G132" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>481</v>
       </c>
       <c r="I132" s="11">
         <v>444972</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K132" s="7">
         <v>45077</v>
@@ -14238,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D133" s="2">
         <v>578299</v>
@@ -14250,16 +14284,16 @@
         <v>3009</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I133" s="2">
         <v>439650</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K133" s="7">
         <v>2990</v>
@@ -14318,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D134" s="11">
         <v>804279</v>
@@ -14330,16 +14364,16 @@
         <v>6431</v>
       </c>
       <c r="G134" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="H134" s="12" t="s">
         <v>486</v>
-      </c>
-      <c r="H134" s="12" t="s">
-        <v>487</v>
       </c>
       <c r="I134" s="11">
         <v>440641</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K134" s="7">
         <v>1109</v>
@@ -14398,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D135" s="11">
         <v>803180</v>
@@ -14410,16 +14444,16 @@
         <v>87944</v>
       </c>
       <c r="G135" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="H135" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="I135" s="11">
         <v>439394</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K135" s="7">
         <v>280</v>
@@ -14478,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D136" s="11">
         <v>641863</v>
@@ -14490,16 +14524,16 @@
         <v>50366</v>
       </c>
       <c r="G136" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H136" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="H136" s="12" t="s">
-        <v>495</v>
       </c>
       <c r="I136" s="11">
         <v>439709</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K136" s="7">
         <v>10483</v>
@@ -14558,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D137" s="11">
         <v>344719</v>
@@ -14570,16 +14604,16 @@
         <v>3212</v>
       </c>
       <c r="G137" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H137" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="I137" s="11">
         <v>700</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K137" s="7">
         <v>15328</v>
@@ -14638,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D138" s="11">
         <v>443306</v>
@@ -14650,16 +14684,16 @@
         <v>102661</v>
       </c>
       <c r="G138" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H138" s="12" t="s">
         <v>501</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>502</v>
       </c>
       <c r="I138" s="11">
         <v>439574</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K138" s="7">
         <v>399</v>
@@ -14718,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D139" s="11">
         <v>471922</v>
@@ -14730,16 +14764,16 @@
         <v>92</v>
       </c>
       <c r="G139" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H139" s="12" t="s">
         <v>505</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>506</v>
       </c>
       <c r="I139" s="11">
         <v>222285</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K139" s="7">
         <v>17248</v>
@@ -14798,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D140" s="11">
         <v>507619</v>
@@ -14810,16 +14844,16 @@
         <v>12092</v>
       </c>
       <c r="G140" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="H140" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="I140" s="11">
         <v>8193</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K140" s="7">
         <v>843</v>
@@ -14878,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D141" s="11">
         <v>902819</v>
@@ -14890,16 +14924,16 @@
         <v>87709</v>
       </c>
       <c r="G141" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>514</v>
       </c>
       <c r="K141" s="7">
         <v>3166</v>
@@ -14958,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D142" s="11">
         <v>332120</v>
@@ -14970,16 +15004,16 @@
         <v>22000</v>
       </c>
       <c r="G142" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="H142" s="12" t="s">
         <v>516</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>517</v>
       </c>
       <c r="I142" s="11">
         <v>670</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K142" s="7">
         <v>1055</v>
@@ -15038,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D143" s="11">
         <v>859500</v>
@@ -15050,7 +15084,7 @@
         <v>126903</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>0</v>
@@ -15118,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D144" s="11">
         <v>850374</v>
@@ -15130,16 +15164,16 @@
         <v>8917</v>
       </c>
       <c r="G144" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="H144" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="I144" s="11">
         <v>94391</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K144" s="7">
         <v>1159</v>
@@ -15198,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D145" s="11">
         <v>700635</v>
@@ -15210,7 +15244,7 @@
         <v>2246</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>0</v>
@@ -15278,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D146" s="2">
         <v>804619</v>
@@ -15290,16 +15324,16 @@
         <v>94</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I146" s="2">
         <v>595</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K146" s="7">
         <v>2948</v>
@@ -15358,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D147" s="11">
         <v>715335</v>
@@ -15370,16 +15404,16 @@
         <v>2787</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I147" s="11">
         <v>439498</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K147" s="7">
         <v>11884</v>
@@ -15438,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D148" s="11">
         <v>500158</v>
@@ -15450,16 +15484,16 @@
         <v>65</v>
       </c>
       <c r="G148" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H148" s="12" t="s">
         <v>535</v>
-      </c>
-      <c r="H148" s="12" t="s">
-        <v>536</v>
       </c>
       <c r="I148" s="11">
         <v>5862</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K148" s="7">
         <v>48199</v>
@@ -15518,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D149" s="11">
         <v>404807</v>
@@ -15530,16 +15564,16 @@
         <v>107144</v>
       </c>
       <c r="G149" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J149" s="12" t="s">
         <v>539</v>
-      </c>
-      <c r="H149" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>540</v>
       </c>
       <c r="K149" s="7">
         <v>616</v>
@@ -15598,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D150" s="11">
         <v>502599</v>
@@ -15610,16 +15644,16 @@
         <v>31</v>
       </c>
       <c r="G150" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="H150" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="H150" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="I150" s="11">
         <v>588</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K150" s="7">
         <v>22702</v>
@@ -15678,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D151" s="11">
         <v>675635</v>
@@ -15690,7 +15724,7 @@
         <v>2670</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>0</v>
@@ -15699,7 +15733,7 @@
         <v>9989541</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K151" s="7">
         <v>486</v>
@@ -15758,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D152" s="11">
         <v>617342</v>
@@ -15770,16 +15804,16 @@
         <v>288</v>
       </c>
       <c r="G152" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="H152" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="H152" s="12" t="s">
-        <v>549</v>
       </c>
       <c r="I152" s="11">
         <v>311</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K152" s="7">
         <v>67408</v>
@@ -15838,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D153" s="11">
         <v>1078536</v>
@@ -15850,16 +15884,16 @@
         <v>19</v>
       </c>
       <c r="G153" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="H153" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="I153" s="11">
         <v>5997</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K153" s="7">
         <v>1659046</v>
@@ -15918,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D154" s="11">
         <v>452386</v>
@@ -15930,16 +15964,16 @@
         <v>50422</v>
       </c>
       <c r="G154" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="H154" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="H154" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="I154" s="11">
         <v>2969</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K154" s="7">
         <v>714</v>
@@ -15998,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D155" s="11">
         <v>574470</v>
@@ -16010,16 +16044,16 @@
         <v>22021</v>
       </c>
       <c r="G155" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>560</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>561</v>
       </c>
       <c r="I155" s="11">
         <v>2526</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K155" s="7">
         <v>138</v>
@@ -16078,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D156" s="2">
         <v>435564</v>
@@ -16090,16 +16124,16 @@
         <v>148</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I156" s="2">
         <v>239</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K156" s="7">
         <v>20756</v>
@@ -16158,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D157" s="11">
         <v>339067</v>
@@ -16170,16 +16204,16 @@
         <v>36</v>
       </c>
       <c r="G157" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="H157" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="I157" s="11">
         <v>243</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K157" s="7">
         <v>4215</v>
@@ -16238,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D158" s="11">
         <v>920648</v>
@@ -16250,16 +16284,16 @@
         <v>46315</v>
       </c>
       <c r="G158" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>572</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>573</v>
       </c>
       <c r="I158" s="11">
         <v>8215</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K158" s="7">
         <v>1612</v>
@@ -16318,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D159" s="2">
         <v>433075</v>
@@ -16330,16 +16364,16 @@
         <v>287</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I159" s="2">
         <v>5960</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K159" s="7">
         <v>218826</v>
@@ -16398,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D160" s="2">
         <v>553078</v>
@@ -16410,16 +16444,16 @@
         <v>146</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I160" s="2">
         <v>6267</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K160" s="7">
         <v>62397</v>
@@ -16478,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D161" s="11">
         <v>834339</v>
@@ -16490,16 +16524,16 @@
         <v>6529</v>
       </c>
       <c r="G161" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="H161" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="H161" s="12" t="s">
-        <v>585</v>
       </c>
       <c r="I161" s="11">
         <v>444899</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K161" s="7">
         <v>6659</v>
@@ -16558,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D162" s="11">
         <v>856421</v>
@@ -16570,16 +16604,16 @@
         <v>291</v>
       </c>
       <c r="G162" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="H162" s="12" t="s">
         <v>588</v>
-      </c>
-      <c r="H162" s="12" t="s">
-        <v>589</v>
       </c>
       <c r="I162" s="11">
         <v>10467</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K162" s="7">
         <v>5719</v>
@@ -16638,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D163" s="11">
         <v>570685</v>
@@ -16650,16 +16684,16 @@
         <v>17001</v>
       </c>
       <c r="G163" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="H163" s="12" t="s">
         <v>592</v>
-      </c>
-      <c r="H163" s="12" t="s">
-        <v>593</v>
       </c>
       <c r="I163" s="11">
         <v>94154</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K163" s="7">
         <v>10278</v>
@@ -16718,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D164" s="11">
         <v>455754</v>
@@ -16730,16 +16764,16 @@
         <v>413</v>
       </c>
       <c r="G164" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="H164" s="12" t="s">
         <v>596</v>
-      </c>
-      <c r="H164" s="12" t="s">
-        <v>597</v>
       </c>
       <c r="I164" s="11">
         <v>100714</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K164" s="7">
         <v>15989</v>
@@ -16798,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D165" s="11">
         <v>507392</v>
@@ -16810,16 +16844,16 @@
         <v>294</v>
       </c>
       <c r="G165" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="H165" s="12" t="s">
         <v>600</v>
-      </c>
-      <c r="H165" s="12" t="s">
-        <v>601</v>
       </c>
       <c r="I165" s="11">
         <v>51</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K165" s="7">
         <v>5353</v>
@@ -16878,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D166" s="11">
         <v>573295</v>
@@ -16890,7 +16924,7 @@
         <v>125502</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>0</v>
@@ -16958,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D167" s="11">
         <v>726050</v>
@@ -16970,7 +17004,7 @@
         <v>117021</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>0</v>
@@ -17038,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D168" s="2">
         <v>240378</v>
@@ -17050,16 +17084,16 @@
         <v>18223</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I168" s="2">
         <v>5950</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K168" s="7">
         <v>392562</v>
@@ -17118,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D169" s="11">
         <v>474435</v>
@@ -17130,16 +17164,16 @@
         <v>125</v>
       </c>
       <c r="G169" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H169" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="H169" s="12" t="s">
-        <v>612</v>
       </c>
       <c r="I169" s="11">
         <v>196</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K169" s="7">
         <v>682</v>
@@ -17198,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D170" s="11">
         <v>1041375</v>
@@ -17210,16 +17244,16 @@
         <v>26719</v>
       </c>
       <c r="G170" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="H170" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="H170" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="I170" s="11">
         <v>6083</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K170" s="7">
         <v>53423</v>
@@ -17278,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D171" s="11">
         <v>918039</v>
@@ -17290,16 +17324,16 @@
         <v>290</v>
       </c>
       <c r="G171" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="H171" s="12" t="s">
         <v>619</v>
-      </c>
-      <c r="H171" s="12" t="s">
-        <v>620</v>
       </c>
       <c r="I171" s="11">
         <v>60961</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K171" s="7">
         <v>13192</v>
@@ -17358,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D172" s="11">
         <v>646534</v>
@@ -17370,16 +17404,16 @@
         <v>1764</v>
       </c>
       <c r="G172" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="H172" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="H172" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="I172" s="11">
         <v>190</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K172" s="7">
         <v>11832</v>
@@ -17438,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D173" s="11">
         <v>586815</v>
@@ -17450,16 +17484,16 @@
         <v>29</v>
       </c>
       <c r="G173" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="H173" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="H173" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="I173" s="11">
         <v>643757</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K173" s="7">
         <v>1197</v>
@@ -17518,7 +17552,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D174" s="11">
         <v>864466</v>
@@ -17530,16 +17564,16 @@
         <v>284</v>
       </c>
       <c r="G174" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="H174" s="12" t="s">
         <v>686</v>
-      </c>
-      <c r="H174" s="12" t="s">
-        <v>687</v>
       </c>
       <c r="I174" s="11">
         <v>1833</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K174" s="7">
         <v>10962</v>
@@ -17598,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D175" s="2">
         <v>967036</v>
@@ -17610,16 +17644,16 @@
         <v>21821</v>
       </c>
       <c r="G175" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H175" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="I175" s="2">
         <v>439176</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K175" s="7">
         <v>1888</v>
@@ -17678,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D176" s="11">
         <v>536657</v>
@@ -17690,16 +17724,16 @@
         <v>1698</v>
       </c>
       <c r="G176" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="H176" s="12" t="s">
         <v>694</v>
-      </c>
-      <c r="H176" s="12" t="s">
-        <v>695</v>
       </c>
       <c r="I176" s="11">
         <v>138</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K176" s="7">
         <v>3234</v>
@@ -17758,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D177" s="11">
         <v>325027</v>
@@ -17770,16 +17804,16 @@
         <v>85123</v>
       </c>
       <c r="G177" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="H177" s="12" t="s">
         <v>707</v>
-      </c>
-      <c r="H177" s="12" t="s">
-        <v>708</v>
       </c>
       <c r="I177" s="11">
         <v>10413</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K177" s="7">
         <v>537</v>
@@ -17838,7 +17872,7 @@
         <v>1</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D178" s="11">
         <v>610734</v>
@@ -17850,16 +17884,16 @@
         <v>1667</v>
       </c>
       <c r="G178" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="H178" s="12" t="s">
         <v>762</v>
-      </c>
-      <c r="H178" s="12" t="s">
-        <v>763</v>
       </c>
       <c r="I178" s="11">
         <v>724</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K178" s="7">
         <v>938</v>
@@ -17918,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D179" s="11">
         <v>521554</v>
@@ -17930,16 +17964,16 @@
         <v>32000</v>
       </c>
       <c r="G179" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="H179" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="H179" s="12" t="s">
-        <v>767</v>
       </c>
       <c r="I179" s="11">
         <v>1662</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K179" s="7">
         <v>338</v>
@@ -17998,7 +18032,7 @@
         <v>1</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D180" s="11">
         <v>455267</v>
@@ -18010,16 +18044,16 @@
         <v>68084</v>
       </c>
       <c r="G180" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="H180" s="12" t="s">
         <v>770</v>
-      </c>
-      <c r="H180" s="12" t="s">
-        <v>771</v>
       </c>
       <c r="I180" s="11">
         <v>64956</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K180" s="7">
         <v>2222</v>
@@ -18078,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D181" s="11">
         <v>941794</v>
@@ -18090,7 +18124,7 @@
         <v>84531</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>0</v>
@@ -18099,7 +18133,7 @@
         <v>5319879</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K181" s="7">
         <v>1301</v>
@@ -18158,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D182" s="2">
         <v>310761</v>
@@ -18170,16 +18204,16 @@
         <v>208</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I182" s="2">
         <v>70</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K182" s="7">
         <v>5727</v>
@@ -18238,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D183" s="11">
         <v>331841</v>
@@ -18250,16 +18284,16 @@
         <v>106429</v>
       </c>
       <c r="G183" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" s="12" t="s">
         <v>821</v>
-      </c>
-      <c r="H183" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I183" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J183" s="12" t="s">
-        <v>822</v>
       </c>
       <c r="K183" s="7">
         <v>904</v>
@@ -18318,7 +18352,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D184" s="11">
         <v>506306</v>
@@ -18330,16 +18364,16 @@
         <v>2000</v>
       </c>
       <c r="G184" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="H184" s="12" t="s">
         <v>824</v>
-      </c>
-      <c r="H184" s="12" t="s">
-        <v>825</v>
       </c>
       <c r="I184" s="11">
         <v>43</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K184" s="7">
         <v>6530</v>
@@ -18398,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D185" s="11">
         <v>373895</v>
@@ -18410,7 +18444,7 @@
         <v>18043</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>0</v>
@@ -18419,7 +18453,7 @@
         <v>28115</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K185" s="7">
         <v>498</v>
@@ -18478,7 +18512,7 @@
         <v>1</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D186" s="11">
         <v>959214</v>
@@ -18490,16 +18524,16 @@
         <v>648</v>
       </c>
       <c r="G186" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="H186" s="12" t="s">
         <v>866</v>
-      </c>
-      <c r="H186" s="12" t="s">
-        <v>867</v>
       </c>
       <c r="I186" s="11">
         <v>24699</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K186" s="7">
         <v>589</v>
@@ -18558,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D187" s="11">
         <v>901749</v>
@@ -18570,16 +18604,16 @@
         <v>2070</v>
       </c>
       <c r="G187" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="H187" s="12" t="s">
         <v>870</v>
-      </c>
-      <c r="H187" s="12" t="s">
-        <v>871</v>
       </c>
       <c r="I187" s="11">
         <v>14900</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K187" s="7">
         <v>931</v>
@@ -18638,7 +18672,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D188" s="11">
         <v>679596</v>
@@ -18650,16 +18684,16 @@
         <v>16713</v>
       </c>
       <c r="G188" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="H188" s="12" t="s">
         <v>874</v>
-      </c>
-      <c r="H188" s="12" t="s">
-        <v>875</v>
       </c>
       <c r="I188" s="11">
         <v>2682</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K188" s="7">
         <v>631</v>
@@ -18718,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D189" s="11">
         <v>633969</v>
@@ -18730,16 +18764,16 @@
         <v>17</v>
       </c>
       <c r="G189" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="H189" s="12" t="s">
         <v>969</v>
-      </c>
-      <c r="H189" s="12" t="s">
-        <v>970</v>
       </c>
       <c r="I189" s="11">
         <v>64960</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K189" s="7">
         <v>632</v>
@@ -18798,7 +18832,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D190" s="11">
         <v>444696</v>
@@ -18810,7 +18844,7 @@
         <v>133655</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>0</v>
@@ -18819,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K190" s="7">
         <v>776</v>
@@ -18878,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D191" s="11">
         <v>397526</v>
@@ -18890,7 +18924,7 @@
         <v>2254</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>0</v>
@@ -18899,7 +18933,7 @@
         <v>23368901</v>
       </c>
       <c r="J191" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K191" s="7">
         <v>35347</v>
@@ -18970,7 +19004,7 @@
         <v>170791</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>0</v>
@@ -19050,7 +19084,7 @@
         <v>170785</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>0</v>
@@ -19130,7 +19164,7 @@
         <v>170783</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>0</v>
@@ -19210,7 +19244,7 @@
         <v>170778</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>0</v>
@@ -19290,7 +19324,7 @@
         <v>170769</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>0</v>
@@ -19370,7 +19404,7 @@
         <v>170768</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>0</v>
@@ -19450,7 +19484,7 @@
         <v>170766</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>0</v>
@@ -19530,7 +19564,7 @@
         <v>170737</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>0</v>
@@ -19610,7 +19644,7 @@
         <v>170736</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>0</v>
@@ -19690,7 +19724,7 @@
         <v>170728</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>0</v>
@@ -19770,7 +19804,7 @@
         <v>170725</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>0</v>
@@ -19850,7 +19884,7 @@
         <v>170724</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H203" s="12" t="s">
         <v>0</v>
@@ -19930,7 +19964,7 @@
         <v>170663</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H204" s="12" t="s">
         <v>0</v>
@@ -20010,7 +20044,7 @@
         <v>170373</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H205" s="12" t="s">
         <v>0</v>
@@ -20090,7 +20124,7 @@
         <v>170345</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>0</v>
@@ -20170,7 +20204,7 @@
         <v>170319</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H207" s="12" t="s">
         <v>0</v>
@@ -20250,7 +20284,7 @@
         <v>170311</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H208" s="12" t="s">
         <v>0</v>
@@ -20330,7 +20364,7 @@
         <v>170271</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>0</v>
@@ -20410,7 +20444,7 @@
         <v>170268</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>0</v>
@@ -20490,7 +20524,7 @@
         <v>170250</v>
       </c>
       <c r="G211" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>0</v>
@@ -20570,7 +20604,7 @@
         <v>170248</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>0</v>
@@ -20650,7 +20684,7 @@
         <v>170242</v>
       </c>
       <c r="G213" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>0</v>
@@ -20730,7 +20764,7 @@
         <v>170241</v>
       </c>
       <c r="G214" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>0</v>
@@ -20810,7 +20844,7 @@
         <v>170238</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>0</v>
@@ -20890,7 +20924,7 @@
         <v>170232</v>
       </c>
       <c r="G216" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>0</v>
@@ -20970,7 +21004,7 @@
         <v>170227</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>0</v>
@@ -21050,7 +21084,7 @@
         <v>170222</v>
       </c>
       <c r="G218" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>0</v>
@@ -21130,7 +21164,7 @@
         <v>170221</v>
       </c>
       <c r="G219" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>0</v>
@@ -21210,7 +21244,7 @@
         <v>169626</v>
       </c>
       <c r="G220" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>0</v>
@@ -21290,7 +21324,7 @@
         <v>169624</v>
       </c>
       <c r="G221" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>0</v>
@@ -21370,7 +21404,7 @@
         <v>169611</v>
       </c>
       <c r="G222" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>0</v>
@@ -21450,7 +21484,7 @@
         <v>169610</v>
       </c>
       <c r="G223" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>0</v>
@@ -21530,7 +21564,7 @@
         <v>163838</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>0</v>
@@ -21610,7 +21644,7 @@
         <v>161900</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>0</v>
@@ -21690,7 +21724,7 @@
         <v>161878</v>
       </c>
       <c r="G226" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>0</v>
@@ -21770,7 +21804,7 @@
         <v>161876</v>
       </c>
       <c r="G227" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>0</v>
@@ -21850,7 +21884,7 @@
         <v>161875</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>0</v>
@@ -21930,7 +21964,7 @@
         <v>161846</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>0</v>
@@ -22010,7 +22044,7 @@
         <v>161843</v>
       </c>
       <c r="G230" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>0</v>
@@ -22090,7 +22124,7 @@
         <v>161397</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>0</v>
@@ -22170,7 +22204,7 @@
         <v>161388</v>
       </c>
       <c r="G232" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H232" s="12" t="s">
         <v>0</v>
@@ -22250,7 +22284,7 @@
         <v>161376</v>
       </c>
       <c r="G233" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H233" s="12" t="s">
         <v>0</v>
@@ -22330,7 +22364,7 @@
         <v>160961</v>
       </c>
       <c r="G234" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H234" s="12" t="s">
         <v>0</v>
@@ -22410,7 +22444,7 @@
         <v>160854</v>
       </c>
       <c r="G235" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H235" s="12" t="s">
         <v>0</v>
@@ -22490,7 +22524,7 @@
         <v>146957</v>
       </c>
       <c r="G236" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>0</v>
@@ -22570,7 +22604,7 @@
         <v>146588</v>
       </c>
       <c r="G237" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H237" s="12" t="s">
         <v>0</v>
@@ -22650,7 +22684,7 @@
         <v>146001</v>
       </c>
       <c r="G238" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>0</v>
@@ -22730,7 +22764,7 @@
         <v>145951</v>
       </c>
       <c r="G239" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>0</v>
@@ -22810,7 +22844,7 @@
         <v>137366</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>0</v>
@@ -22890,7 +22924,7 @@
         <v>137344</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>0</v>
@@ -22970,7 +23004,7 @@
         <v>135260</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>0</v>
@@ -23050,7 +23084,7 @@
         <v>134405</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>0</v>
@@ -23130,7 +23164,7 @@
         <v>133478</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>0</v>
@@ -23210,7 +23244,7 @@
         <v>133467</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>0</v>
@@ -23290,7 +23324,7 @@
         <v>133340</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>0</v>
@@ -23370,7 +23404,7 @@
         <v>133339</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>0</v>
@@ -23450,7 +23484,7 @@
         <v>133242</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>0</v>
@@ -23530,7 +23564,7 @@
         <v>132143</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>0</v>
@@ -23610,7 +23644,7 @@
         <v>131989</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>0</v>
@@ -23690,7 +23724,7 @@
         <v>131694</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>0</v>
@@ -23770,7 +23804,7 @@
         <v>131620</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>0</v>
@@ -23850,7 +23884,7 @@
         <v>131109</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>0</v>
@@ -23930,7 +23964,7 @@
         <v>131108</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>0</v>
@@ -24010,7 +24044,7 @@
         <v>130810</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>0</v>
@@ -24090,7 +24124,7 @@
         <v>130741</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>0</v>
@@ -24170,7 +24204,7 @@
         <v>130717</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>0</v>
@@ -24250,7 +24284,7 @@
         <v>130638</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>0</v>
@@ -24330,7 +24364,7 @@
         <v>130582</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>0</v>
@@ -24410,7 +24444,7 @@
         <v>130396</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H260" s="12" t="s">
         <v>0</v>
@@ -24490,7 +24524,7 @@
         <v>128051</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H261" s="12" t="s">
         <v>0</v>
@@ -24570,7 +24604,7 @@
         <v>128024</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H262" s="12" t="s">
         <v>0</v>
@@ -24650,7 +24684,7 @@
         <v>127671</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H263" s="12" t="s">
         <v>0</v>
@@ -24730,7 +24764,7 @@
         <v>126961</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H264" s="12" t="s">
         <v>0</v>
@@ -24810,7 +24844,7 @@
         <v>126564</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H265" s="12" t="s">
         <v>0</v>
@@ -24890,7 +24924,7 @@
         <v>126397</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H266" s="12" t="s">
         <v>0</v>
@@ -24970,7 +25004,7 @@
         <v>126391</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>0</v>
@@ -25050,7 +25084,7 @@
         <v>126354</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H268" s="12" t="s">
         <v>0</v>
@@ -25130,7 +25164,7 @@
         <v>126344</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>0</v>
@@ -25210,7 +25244,7 @@
         <v>126342</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>0</v>
@@ -25290,7 +25324,7 @@
         <v>125790</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>0</v>
@@ -25370,7 +25404,7 @@
         <v>125784</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H272" s="12" t="s">
         <v>0</v>
@@ -25450,7 +25484,7 @@
         <v>125504</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>0</v>
@@ -25530,7 +25564,7 @@
         <v>125468</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>0</v>
@@ -25610,7 +25644,7 @@
         <v>125455</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>0</v>
@@ -25690,7 +25724,7 @@
         <v>124996</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H276" s="12" t="s">
         <v>0</v>
@@ -25770,7 +25804,7 @@
         <v>124903</v>
       </c>
       <c r="G277" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H277" s="12" t="s">
         <v>0</v>
@@ -25850,7 +25884,7 @@
         <v>124870</v>
       </c>
       <c r="G278" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H278" s="12" t="s">
         <v>0</v>
@@ -25930,7 +25964,7 @@
         <v>124825</v>
       </c>
       <c r="G279" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H279" s="12" t="s">
         <v>0</v>
@@ -26010,7 +26044,7 @@
         <v>124546</v>
       </c>
       <c r="G280" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>0</v>
@@ -26090,7 +26124,7 @@
         <v>122191</v>
       </c>
       <c r="G281" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H281" s="12" t="s">
         <v>0</v>
@@ -26170,7 +26204,7 @@
         <v>121890</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H282" s="12" t="s">
         <v>0</v>
@@ -26250,7 +26284,7 @@
         <v>121404</v>
       </c>
       <c r="G283" s="12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H283" s="12" t="s">
         <v>0</v>
@@ -26330,7 +26364,7 @@
         <v>121384</v>
       </c>
       <c r="G284" s="12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H284" s="12" t="s">
         <v>0</v>
@@ -26410,7 +26444,7 @@
         <v>121002</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>0</v>
@@ -26490,7 +26524,7 @@
         <v>120781</v>
       </c>
       <c r="G286" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H286" s="12" t="s">
         <v>0</v>
@@ -26570,7 +26604,7 @@
         <v>120670</v>
       </c>
       <c r="G287" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>0</v>
@@ -26650,7 +26684,7 @@
         <v>120665</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>0</v>
@@ -26730,7 +26764,7 @@
         <v>120562</v>
       </c>
       <c r="G289" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>0</v>
@@ -26810,7 +26844,7 @@
         <v>119066</v>
       </c>
       <c r="G290" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>0</v>
@@ -26890,7 +26924,7 @@
         <v>119054</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>0</v>
@@ -26970,7 +27004,7 @@
         <v>117745</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>0</v>
@@ -27050,7 +27084,7 @@
         <v>117235</v>
       </c>
       <c r="G293" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>0</v>
@@ -27130,7 +27164,7 @@
         <v>117193</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>0</v>
@@ -27210,7 +27244,7 @@
         <v>117043</v>
       </c>
       <c r="G295" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>0</v>
@@ -27290,7 +27324,7 @@
         <v>113549</v>
       </c>
       <c r="G296" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>0</v>
@@ -27370,7 +27404,7 @@
         <v>113535</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>0</v>
@@ -27450,7 +27484,7 @@
         <v>112501</v>
       </c>
       <c r="G298" s="12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>0</v>
@@ -27530,7 +27564,7 @@
         <v>112261</v>
       </c>
       <c r="G299" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>0</v>
@@ -27610,7 +27644,7 @@
         <v>111776</v>
       </c>
       <c r="G300" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>0</v>
@@ -27690,7 +27724,7 @@
         <v>111263</v>
       </c>
       <c r="G301" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>0</v>
@@ -27770,7 +27804,7 @@
         <v>111230</v>
       </c>
       <c r="G302" s="12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>0</v>
@@ -27850,7 +27884,7 @@
         <v>110985</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>0</v>
@@ -27930,7 +27964,7 @@
         <v>110657</v>
       </c>
       <c r="G304" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>0</v>
@@ -28010,7 +28044,7 @@
         <v>110628</v>
       </c>
       <c r="G305" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>0</v>
@@ -28090,7 +28124,7 @@
         <v>110625</v>
       </c>
       <c r="G306" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>0</v>
@@ -28170,7 +28204,7 @@
         <v>110621</v>
       </c>
       <c r="G307" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>0</v>
@@ -28250,7 +28284,7 @@
         <v>110607</v>
       </c>
       <c r="G308" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>0</v>
@@ -28330,7 +28364,7 @@
         <v>110604</v>
       </c>
       <c r="G309" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>0</v>
@@ -28410,7 +28444,7 @@
         <v>110389</v>
       </c>
       <c r="G310" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>0</v>
@@ -28490,7 +28524,7 @@
         <v>110355</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>0</v>
@@ -28570,7 +28604,7 @@
         <v>110330</v>
       </c>
       <c r="G312" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>0</v>
@@ -28650,7 +28684,7 @@
         <v>110328</v>
       </c>
       <c r="G313" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>0</v>
@@ -28730,7 +28764,7 @@
         <v>110289</v>
       </c>
       <c r="G314" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>0</v>
@@ -28810,7 +28844,7 @@
         <v>110283</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>0</v>
@@ -28890,7 +28924,7 @@
         <v>110189</v>
       </c>
       <c r="G316" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>0</v>
@@ -28970,7 +29004,7 @@
         <v>110131</v>
       </c>
       <c r="G317" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>0</v>
@@ -29050,7 +29084,7 @@
         <v>110123</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>0</v>
@@ -29130,7 +29164,7 @@
         <v>110025</v>
       </c>
       <c r="G319" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>0</v>
@@ -29210,7 +29244,7 @@
         <v>110016</v>
       </c>
       <c r="G320" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>0</v>
@@ -29290,7 +29324,7 @@
         <v>109921</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>0</v>
@@ -29370,7 +29404,7 @@
         <v>107941</v>
       </c>
       <c r="G322" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>0</v>
@@ -29379,7 +29413,7 @@
         <v>0</v>
       </c>
       <c r="J322" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K322" s="7">
         <v>1095444</v>
@@ -29450,7 +29484,7 @@
         <v>107901</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>0</v>
@@ -29530,7 +29564,7 @@
         <v>107143</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>0</v>
@@ -29610,7 +29644,7 @@
         <v>106713</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>0</v>
@@ -29690,7 +29724,7 @@
         <v>106710</v>
       </c>
       <c r="G326" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>0</v>
@@ -29770,7 +29804,7 @@
         <v>106707</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>0</v>
@@ -29850,7 +29884,7 @@
         <v>106629</v>
       </c>
       <c r="G328" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>0</v>
@@ -29930,7 +29964,7 @@
         <v>106498</v>
       </c>
       <c r="G329" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>0</v>
@@ -30010,7 +30044,7 @@
         <v>106495</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>0</v>
@@ -30090,7 +30124,7 @@
         <v>104663</v>
       </c>
       <c r="G331" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>0</v>
@@ -30170,7 +30204,7 @@
         <v>104599</v>
       </c>
       <c r="G332" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H332" s="12" t="s">
         <v>0</v>
@@ -30250,7 +30284,7 @@
         <v>104394</v>
       </c>
       <c r="G333" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H333" s="12" t="s">
         <v>0</v>
@@ -30330,7 +30364,7 @@
         <v>104135</v>
       </c>
       <c r="G334" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H334" s="12" t="s">
         <v>0</v>
@@ -30410,7 +30444,7 @@
         <v>104131</v>
       </c>
       <c r="G335" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H335" s="12" t="s">
         <v>0</v>
@@ -30490,7 +30524,7 @@
         <v>104023</v>
       </c>
       <c r="G336" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>0</v>
@@ -30570,7 +30604,7 @@
         <v>103870</v>
       </c>
       <c r="G337" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H337" s="12" t="s">
         <v>0</v>
@@ -30650,7 +30684,7 @@
         <v>103858</v>
       </c>
       <c r="G338" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H338" s="12" t="s">
         <v>0</v>
@@ -30730,7 +30764,7 @@
         <v>103840</v>
       </c>
       <c r="G339" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H339" s="12" t="s">
         <v>0</v>
@@ -30810,7 +30844,7 @@
         <v>103832</v>
       </c>
       <c r="G340" s="12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H340" s="12" t="s">
         <v>0</v>
@@ -30890,7 +30924,7 @@
         <v>103828</v>
       </c>
       <c r="G341" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H341" s="12" t="s">
         <v>0</v>
@@ -30970,7 +31004,7 @@
         <v>103826</v>
       </c>
       <c r="G342" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H342" s="12" t="s">
         <v>0</v>
@@ -31050,7 +31084,7 @@
         <v>103821</v>
       </c>
       <c r="G343" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H343" s="12" t="s">
         <v>0</v>
@@ -31130,7 +31164,7 @@
         <v>103102</v>
       </c>
       <c r="G344" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H344" s="12" t="s">
         <v>0</v>
@@ -31210,7 +31244,7 @@
         <v>102581</v>
       </c>
       <c r="G345" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H345" s="12" t="s">
         <v>0</v>
@@ -31290,7 +31324,7 @@
         <v>102304</v>
       </c>
       <c r="G346" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H346" s="12" t="s">
         <v>0</v>
@@ -31370,7 +31404,7 @@
         <v>102248</v>
       </c>
       <c r="G347" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H347" s="12" t="s">
         <v>0</v>
@@ -31450,7 +31484,7 @@
         <v>102232</v>
       </c>
       <c r="G348" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H348" s="12" t="s">
         <v>0</v>
@@ -31530,7 +31564,7 @@
         <v>100912</v>
       </c>
       <c r="G349" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H349" s="12" t="s">
         <v>0</v>
@@ -31610,7 +31644,7 @@
         <v>100879</v>
       </c>
       <c r="G350" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H350" s="12" t="s">
         <v>0</v>
@@ -31690,7 +31724,7 @@
         <v>100732</v>
       </c>
       <c r="G351" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H351" s="12" t="s">
         <v>0</v>
@@ -31770,7 +31804,7 @@
         <v>100666</v>
       </c>
       <c r="G352" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H352" s="12" t="s">
         <v>0</v>
@@ -31850,7 +31884,7 @@
         <v>100326</v>
       </c>
       <c r="G353" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H353" s="12" t="s">
         <v>0</v>
@@ -31930,7 +31964,7 @@
         <v>99877</v>
       </c>
       <c r="G354" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H354" s="12" t="s">
         <v>0</v>
@@ -32010,7 +32044,7 @@
         <v>99873</v>
       </c>
       <c r="G355" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H355" s="12" t="s">
         <v>0</v>
@@ -32090,7 +32124,7 @@
         <v>99868</v>
       </c>
       <c r="G356" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H356" s="12" t="s">
         <v>0</v>
@@ -32170,7 +32204,7 @@
         <v>99867</v>
       </c>
       <c r="G357" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H357" s="12" t="s">
         <v>0</v>
@@ -32250,7 +32284,7 @@
         <v>99862</v>
       </c>
       <c r="G358" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H358" s="12" t="s">
         <v>0</v>
@@ -32330,7 +32364,7 @@
         <v>97743</v>
       </c>
       <c r="G359" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H359" s="12" t="s">
         <v>0</v>
@@ -32410,7 +32444,7 @@
         <v>97455</v>
       </c>
       <c r="G360" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H360" s="12" t="s">
         <v>0</v>
@@ -32490,7 +32524,7 @@
         <v>97326</v>
       </c>
       <c r="G361" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H361" s="12" t="s">
         <v>0</v>
@@ -32570,7 +32604,7 @@
         <v>97204</v>
       </c>
       <c r="G362" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H362" s="12" t="s">
         <v>0</v>
@@ -32650,7 +32684,7 @@
         <v>95438</v>
       </c>
       <c r="G363" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H363" s="12" t="s">
         <v>0</v>
@@ -32730,7 +32764,7 @@
         <v>94724</v>
       </c>
       <c r="G364" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H364" s="12" t="s">
         <v>0</v>
@@ -32810,7 +32844,7 @@
         <v>88502</v>
       </c>
       <c r="G365" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H365" s="12" t="s">
         <v>0</v>
@@ -32890,7 +32924,7 @@
         <v>87808</v>
       </c>
       <c r="G366" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H366" s="12" t="s">
         <v>0</v>
@@ -32970,7 +33004,7 @@
         <v>87713</v>
       </c>
       <c r="G367" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H367" s="12" t="s">
         <v>0</v>
@@ -33050,7 +33084,7 @@
         <v>87284</v>
       </c>
       <c r="G368" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H368" s="12" t="s">
         <v>0</v>
@@ -33130,7 +33164,7 @@
         <v>86075</v>
       </c>
       <c r="G369" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H369" s="12" t="s">
         <v>0</v>
@@ -33210,7 +33244,7 @@
         <v>85003</v>
       </c>
       <c r="G370" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H370" s="12" t="s">
         <v>0</v>
@@ -33290,16 +33324,16 @@
         <v>84922</v>
       </c>
       <c r="G371" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="H371" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="H371" s="12" t="s">
-        <v>649</v>
       </c>
       <c r="I371" s="11">
         <v>6131</v>
       </c>
       <c r="J371" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K371" s="7">
         <v>462884</v>
@@ -33370,7 +33404,7 @@
         <v>84915</v>
       </c>
       <c r="G372" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H372" s="12" t="s">
         <v>0</v>
@@ -33450,7 +33484,7 @@
         <v>84721</v>
       </c>
       <c r="G373" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H373" s="12" t="s">
         <v>0</v>
@@ -33530,7 +33564,7 @@
         <v>84682</v>
       </c>
       <c r="G374" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H374" s="12" t="s">
         <v>0</v>
@@ -33610,7 +33644,7 @@
         <v>84583</v>
       </c>
       <c r="G375" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H375" s="12" t="s">
         <v>0</v>
@@ -33690,7 +33724,7 @@
         <v>84544</v>
       </c>
       <c r="G376" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H376" s="12" t="s">
         <v>0</v>
@@ -33770,7 +33804,7 @@
         <v>84390</v>
       </c>
       <c r="G377" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H377" s="12" t="s">
         <v>0</v>
@@ -33850,7 +33884,7 @@
         <v>84383</v>
       </c>
       <c r="G378" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H378" s="12" t="s">
         <v>0</v>
@@ -33930,7 +33964,7 @@
         <v>84382</v>
       </c>
       <c r="G379" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H379" s="12" t="s">
         <v>0</v>
@@ -34010,7 +34044,7 @@
         <v>84216</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H380" s="12" t="s">
         <v>0</v>
@@ -34090,7 +34124,7 @@
         <v>84211</v>
       </c>
       <c r="G381" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H381" s="12" t="s">
         <v>0</v>
@@ -34170,7 +34204,7 @@
         <v>84188</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H382" s="12" t="s">
         <v>0</v>
@@ -34250,7 +34284,7 @@
         <v>84181</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H383" s="12" t="s">
         <v>0</v>
@@ -34330,7 +34364,7 @@
         <v>84110</v>
       </c>
       <c r="G384" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H384" s="12" t="s">
         <v>0</v>
@@ -34410,7 +34444,7 @@
         <v>84088</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H385" s="12" t="s">
         <v>0</v>
@@ -34490,7 +34524,7 @@
         <v>84086</v>
       </c>
       <c r="G386" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H386" s="12" t="s">
         <v>0</v>
@@ -34570,7 +34604,7 @@
         <v>68076</v>
       </c>
       <c r="G387" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H387" s="12" t="s">
         <v>0</v>
@@ -34650,7 +34684,7 @@
         <v>66305</v>
       </c>
       <c r="G388" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H388" s="12" t="s">
         <v>0</v>
@@ -34730,7 +34764,7 @@
         <v>66261</v>
       </c>
       <c r="G389" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H389" s="12" t="s">
         <v>0</v>
@@ -34810,7 +34844,7 @@
         <v>64742</v>
       </c>
       <c r="G390" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H390" s="12" t="s">
         <v>0</v>
@@ -34890,7 +34924,7 @@
         <v>64668</v>
       </c>
       <c r="G391" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H391" s="12" t="s">
         <v>0</v>
@@ -34970,7 +35004,7 @@
         <v>64643</v>
       </c>
       <c r="G392" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H392" s="12" t="s">
         <v>0</v>
@@ -35050,7 +35084,7 @@
         <v>64612</v>
       </c>
       <c r="G393" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H393" s="12" t="s">
         <v>0</v>
@@ -35130,7 +35164,7 @@
         <v>64557</v>
       </c>
       <c r="G394" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H394" s="12" t="s">
         <v>0</v>
@@ -35210,7 +35244,7 @@
         <v>62409</v>
       </c>
       <c r="G395" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H395" s="12" t="s">
         <v>0</v>
@@ -35290,7 +35324,7 @@
         <v>62393</v>
       </c>
       <c r="G396" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H396" s="12" t="s">
         <v>0</v>
@@ -35370,7 +35404,7 @@
         <v>62264</v>
       </c>
       <c r="G397" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H397" s="12" t="s">
         <v>0</v>
@@ -35450,7 +35484,7 @@
         <v>49400</v>
       </c>
       <c r="G398" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H398" s="12" t="s">
         <v>0</v>
@@ -35530,7 +35564,7 @@
         <v>48608</v>
       </c>
       <c r="G399" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H399" s="12" t="s">
         <v>0</v>
@@ -35610,7 +35644,7 @@
         <v>48427</v>
       </c>
       <c r="G400" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H400" s="12" t="s">
         <v>0</v>
@@ -35690,7 +35724,7 @@
         <v>47561</v>
       </c>
       <c r="G401" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H401" s="12" t="s">
         <v>0</v>
@@ -35770,7 +35804,7 @@
         <v>47358</v>
       </c>
       <c r="G402" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H402" s="12" t="s">
         <v>0</v>
@@ -35850,7 +35884,7 @@
         <v>47286</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H403" s="12" t="s">
         <v>0</v>
@@ -35930,7 +35964,7 @@
         <v>47170</v>
       </c>
       <c r="G404" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H404" s="12" t="s">
         <v>0</v>
@@ -36010,7 +36044,7 @@
         <v>46413</v>
       </c>
       <c r="G405" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H405" s="12" t="s">
         <v>0</v>
@@ -36090,7 +36124,7 @@
         <v>46292</v>
       </c>
       <c r="G406" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H406" s="12" t="s">
         <v>0</v>
@@ -36170,7 +36204,7 @@
         <v>46128</v>
       </c>
       <c r="G407" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H407" s="12" t="s">
         <v>0</v>
@@ -36250,7 +36284,7 @@
         <v>45378</v>
       </c>
       <c r="G408" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H408" s="12" t="s">
         <v>0</v>
@@ -36330,7 +36364,7 @@
         <v>43734</v>
       </c>
       <c r="G409" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H409" s="12" t="s">
         <v>0</v>
@@ -36410,7 +36444,7 @@
         <v>43100</v>
       </c>
       <c r="G410" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H410" s="12" t="s">
         <v>0</v>
@@ -36490,7 +36524,7 @@
         <v>43021</v>
       </c>
       <c r="G411" s="12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H411" s="12" t="s">
         <v>0</v>
@@ -36570,7 +36604,7 @@
         <v>42928</v>
       </c>
       <c r="G412" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H412" s="12" t="s">
         <v>0</v>
@@ -36650,7 +36684,7 @@
         <v>42914</v>
       </c>
       <c r="G413" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H413" s="12" t="s">
         <v>0</v>
@@ -36730,7 +36764,7 @@
         <v>42913</v>
       </c>
       <c r="G414" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H414" s="12" t="s">
         <v>0</v>
@@ -36810,7 +36844,7 @@
         <v>42529</v>
       </c>
       <c r="G415" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H415" s="12" t="s">
         <v>0</v>
@@ -36890,7 +36924,7 @@
         <v>42525</v>
       </c>
       <c r="G416" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H416" s="12" t="s">
         <v>0</v>
@@ -36970,7 +37004,7 @@
         <v>42481</v>
       </c>
       <c r="G417" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H417" s="12" t="s">
         <v>0</v>
@@ -37050,7 +37084,7 @@
         <v>42446</v>
       </c>
       <c r="G418" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H418" s="12" t="s">
         <v>0</v>
@@ -37130,7 +37164,7 @@
         <v>42445</v>
       </c>
       <c r="G419" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H419" s="12" t="s">
         <v>0</v>
@@ -37210,7 +37244,7 @@
         <v>42424</v>
       </c>
       <c r="G420" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H420" s="12" t="s">
         <v>0</v>
@@ -37290,7 +37324,7 @@
         <v>42161</v>
       </c>
       <c r="G421" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H421" s="12" t="s">
         <v>0</v>
@@ -37370,7 +37404,7 @@
         <v>42007</v>
       </c>
       <c r="G422" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H422" s="12" t="s">
         <v>0</v>
@@ -37450,7 +37484,7 @@
         <v>42003</v>
       </c>
       <c r="G423" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H423" s="12" t="s">
         <v>0</v>
@@ -37530,7 +37564,7 @@
         <v>41992</v>
       </c>
       <c r="G424" s="12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H424" s="12" t="s">
         <v>0</v>
@@ -37610,7 +37644,7 @@
         <v>41985</v>
       </c>
       <c r="G425" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H425" s="12" t="s">
         <v>0</v>
@@ -37690,7 +37724,7 @@
         <v>41891</v>
       </c>
       <c r="G426" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H426" s="12" t="s">
         <v>0</v>
@@ -37770,7 +37804,7 @@
         <v>41821</v>
       </c>
       <c r="G427" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H427" s="12" t="s">
         <v>0</v>
@@ -37850,7 +37884,7 @@
         <v>41808</v>
       </c>
       <c r="G428" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H428" s="12" t="s">
         <v>0</v>
@@ -37930,7 +37964,7 @@
         <v>34444</v>
       </c>
       <c r="G429" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H429" s="12" t="s">
         <v>0</v>
@@ -38010,7 +38044,7 @@
         <v>34097</v>
       </c>
       <c r="G430" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H430" s="12" t="s">
         <v>0</v>
@@ -38090,7 +38124,7 @@
         <v>34093</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H431" s="12" t="s">
         <v>0</v>
@@ -38170,7 +38204,7 @@
         <v>34089</v>
       </c>
       <c r="G432" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H432" s="12" t="s">
         <v>0</v>
@@ -38250,7 +38284,7 @@
         <v>34059</v>
       </c>
       <c r="G433" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H433" s="12" t="s">
         <v>0</v>
@@ -38330,7 +38364,7 @@
         <v>34055</v>
       </c>
       <c r="G434" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H434" s="12" t="s">
         <v>0</v>
@@ -38410,7 +38444,7 @@
         <v>34041</v>
       </c>
       <c r="G435" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H435" s="12" t="s">
         <v>0</v>
@@ -38490,7 +38524,7 @@
         <v>33988</v>
       </c>
       <c r="G436" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H436" s="12" t="s">
         <v>0</v>
@@ -38570,7 +38604,7 @@
         <v>33983</v>
       </c>
       <c r="G437" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H437" s="12" t="s">
         <v>0</v>
@@ -38650,7 +38684,7 @@
         <v>33393</v>
       </c>
       <c r="G438" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H438" s="12" t="s">
         <v>0</v>
@@ -38730,7 +38764,7 @@
         <v>33387</v>
       </c>
       <c r="G439" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H439" s="12" t="s">
         <v>0</v>
@@ -38810,7 +38844,7 @@
         <v>32125</v>
       </c>
       <c r="G440" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H440" s="12" t="s">
         <v>0</v>
@@ -38890,7 +38924,7 @@
         <v>31962</v>
       </c>
       <c r="G441" s="12" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H441" s="12" t="s">
         <v>0</v>
@@ -38970,7 +39004,7 @@
         <v>31756</v>
       </c>
       <c r="G442" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H442" s="12" t="s">
         <v>0</v>
@@ -39050,7 +39084,7 @@
         <v>31664</v>
       </c>
       <c r="G443" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H443" s="12" t="s">
         <v>0</v>
@@ -39130,7 +39164,7 @@
         <v>31621</v>
       </c>
       <c r="G444" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H444" s="12" t="s">
         <v>0</v>
@@ -39210,7 +39244,7 @@
         <v>31601</v>
       </c>
       <c r="G445" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H445" s="12" t="s">
         <v>0</v>
@@ -39290,7 +39324,7 @@
         <v>31563</v>
       </c>
       <c r="G446" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H446" s="12" t="s">
         <v>0</v>
@@ -39370,7 +39404,7 @@
         <v>31556</v>
       </c>
       <c r="G447" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H447" s="12" t="s">
         <v>0</v>
@@ -39450,7 +39484,7 @@
         <v>31554</v>
       </c>
       <c r="G448" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H448" s="12" t="s">
         <v>0</v>
@@ -39530,7 +39564,7 @@
         <v>31547</v>
       </c>
       <c r="G449" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H449" s="12" t="s">
         <v>0</v>
@@ -39610,7 +39644,7 @@
         <v>31460</v>
       </c>
       <c r="G450" s="12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H450" s="12" t="s">
         <v>0</v>
@@ -39690,7 +39724,7 @@
         <v>31459</v>
       </c>
       <c r="G451" s="12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H451" s="12" t="s">
         <v>0</v>
@@ -39770,7 +39804,7 @@
         <v>31408</v>
       </c>
       <c r="G452" s="12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H452" s="12" t="s">
         <v>0</v>
@@ -39850,7 +39884,7 @@
         <v>31359</v>
       </c>
       <c r="G453" s="12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H453" s="12" t="s">
         <v>0</v>
@@ -39930,7 +39964,7 @@
         <v>31357</v>
       </c>
       <c r="G454" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H454" s="12" t="s">
         <v>0</v>
@@ -40010,7 +40044,7 @@
         <v>31272</v>
       </c>
       <c r="G455" s="12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H455" s="12" t="s">
         <v>0</v>
@@ -40090,7 +40124,7 @@
         <v>31224</v>
       </c>
       <c r="G456" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H456" s="12" t="s">
         <v>0</v>
@@ -40170,7 +40204,7 @@
         <v>31223</v>
       </c>
       <c r="G457" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H457" s="12" t="s">
         <v>0</v>
@@ -40250,7 +40284,7 @@
         <v>31222</v>
       </c>
       <c r="G458" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H458" s="12" t="s">
         <v>0</v>
@@ -40330,7 +40364,7 @@
         <v>29933</v>
       </c>
       <c r="G459" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H459" s="12" t="s">
         <v>0</v>
@@ -40410,7 +40444,7 @@
         <v>26918</v>
       </c>
       <c r="G460" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H460" s="12" t="s">
         <v>0</v>
@@ -40490,7 +40524,7 @@
         <v>26916</v>
       </c>
       <c r="G461" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H461" s="12" t="s">
         <v>0</v>
@@ -40570,7 +40604,7 @@
         <v>26736</v>
       </c>
       <c r="G462" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H462" s="12" t="s">
         <v>0</v>
@@ -40650,7 +40684,7 @@
         <v>23635</v>
       </c>
       <c r="G463" s="12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H463" s="12" t="s">
         <v>0</v>
@@ -40730,7 +40764,7 @@
         <v>21861</v>
       </c>
       <c r="G464" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H464" s="12" t="s">
         <v>0</v>
@@ -40810,7 +40844,7 @@
         <v>21811</v>
       </c>
       <c r="G465" s="12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H465" s="12" t="s">
         <v>0</v>
@@ -40890,7 +40924,7 @@
         <v>21683</v>
       </c>
       <c r="G466" s="12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H466" s="12" t="s">
         <v>0</v>
@@ -40970,7 +41004,7 @@
         <v>21665</v>
       </c>
       <c r="G467" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H467" s="12" t="s">
         <v>0</v>
@@ -41050,7 +41084,7 @@
         <v>21664</v>
       </c>
       <c r="G468" s="12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H468" s="12" t="s">
         <v>0</v>
@@ -41130,7 +41164,7 @@
         <v>21652</v>
       </c>
       <c r="G469" s="12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H469" s="12" t="s">
         <v>0</v>
@@ -41210,7 +41244,7 @@
         <v>18530</v>
       </c>
       <c r="G470" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H470" s="12" t="s">
         <v>0</v>
@@ -41290,7 +41324,7 @@
         <v>18520</v>
       </c>
       <c r="G471" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H471" s="12" t="s">
         <v>0</v>
@@ -41370,7 +41404,7 @@
         <v>18488</v>
       </c>
       <c r="G472" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H472" s="12" t="s">
         <v>0</v>
@@ -41450,7 +41484,7 @@
         <v>18361</v>
       </c>
       <c r="G473" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H473" s="12" t="s">
         <v>0</v>
@@ -41530,7 +41564,7 @@
         <v>18345</v>
       </c>
       <c r="G474" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H474" s="12" t="s">
         <v>0</v>
@@ -41610,7 +41644,7 @@
         <v>18310</v>
       </c>
       <c r="G475" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H475" s="12" t="s">
         <v>0</v>
@@ -41690,7 +41724,7 @@
         <v>18305</v>
       </c>
       <c r="G476" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H476" s="12" t="s">
         <v>0</v>
@@ -41770,7 +41804,7 @@
         <v>18266</v>
       </c>
       <c r="G477" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H477" s="12" t="s">
         <v>0</v>
@@ -41850,7 +41884,7 @@
         <v>18248</v>
       </c>
       <c r="G478" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H478" s="12" t="s">
         <v>0</v>
@@ -41930,7 +41964,7 @@
         <v>18242</v>
       </c>
       <c r="G479" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H479" s="12" t="s">
         <v>0</v>
@@ -42010,7 +42044,7 @@
         <v>17651</v>
       </c>
       <c r="G480" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H480" s="12" t="s">
         <v>0</v>
@@ -42090,7 +42124,7 @@
         <v>17297</v>
       </c>
       <c r="G481" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H481" s="12" t="s">
         <v>0</v>
@@ -42170,7 +42204,7 @@
         <v>17253</v>
       </c>
       <c r="G482" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H482" s="12" t="s">
         <v>0</v>
@@ -42250,7 +42284,7 @@
         <v>17252</v>
       </c>
       <c r="G483" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H483" s="12" t="s">
         <v>0</v>
@@ -42330,7 +42364,7 @@
         <v>17233</v>
       </c>
       <c r="G484" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H484" s="12" t="s">
         <v>0</v>
@@ -42410,7 +42444,7 @@
         <v>17186</v>
       </c>
       <c r="G485" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H485" s="12" t="s">
         <v>0</v>
@@ -42490,7 +42524,7 @@
         <v>17076</v>
       </c>
       <c r="G486" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H486" s="12" t="s">
         <v>0</v>
@@ -42570,7 +42604,7 @@
         <v>16867</v>
       </c>
       <c r="G487" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H487" s="12" t="s">
         <v>0</v>
@@ -42650,7 +42684,7 @@
         <v>16809</v>
       </c>
       <c r="G488" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H488" s="12" t="s">
         <v>0</v>
@@ -42730,7 +42764,7 @@
         <v>13146</v>
       </c>
       <c r="G489" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H489" s="12" t="s">
         <v>0</v>
@@ -42810,7 +42844,7 @@
         <v>12390</v>
       </c>
       <c r="G490" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H490" s="12" t="s">
         <v>0</v>
@@ -42890,7 +42924,7 @@
         <v>11586</v>
       </c>
       <c r="G491" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H491" s="12" t="s">
         <v>0</v>
@@ -42970,7 +43004,7 @@
         <v>11457</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H492" s="12" t="s">
         <v>0</v>
@@ -43050,7 +43084,7 @@
         <v>11353</v>
       </c>
       <c r="G493" s="12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H493" s="12" t="s">
         <v>0</v>
@@ -43130,7 +43164,7 @@
         <v>10465</v>
       </c>
       <c r="G494" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H494" s="12" t="s">
         <v>0</v>
@@ -43210,7 +43244,7 @@
         <v>10176</v>
       </c>
       <c r="G495" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H495" s="12" t="s">
         <v>0</v>
@@ -43290,7 +43324,7 @@
         <v>8607</v>
       </c>
       <c r="G496" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H496" s="12" t="s">
         <v>0</v>
@@ -43370,7 +43404,7 @@
         <v>7826</v>
       </c>
       <c r="G497" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H497" s="12" t="s">
         <v>0</v>
@@ -43450,7 +43484,7 @@
         <v>7409</v>
       </c>
       <c r="G498" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H498" s="12" t="s">
         <v>0</v>
@@ -43530,7 +43564,7 @@
         <v>6646</v>
       </c>
       <c r="G499" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H499" s="12" t="s">
         <v>0</v>
@@ -43610,7 +43644,7 @@
         <v>6422</v>
       </c>
       <c r="G500" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H500" s="12" t="s">
         <v>0</v>
@@ -43690,7 +43724,7 @@
         <v>6381</v>
       </c>
       <c r="G501" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H501" s="12" t="s">
         <v>0</v>
@@ -43770,7 +43804,7 @@
         <v>6353</v>
       </c>
       <c r="G502" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H502" s="12" t="s">
         <v>0</v>
@@ -43850,7 +43884,7 @@
         <v>6292</v>
       </c>
       <c r="G503" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H503" s="12" t="s">
         <v>0</v>
@@ -43930,7 +43964,7 @@
         <v>5990</v>
       </c>
       <c r="G504" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H504" s="12" t="s">
         <v>0</v>
@@ -44010,7 +44044,7 @@
         <v>5884</v>
       </c>
       <c r="G505" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H505" s="12" t="s">
         <v>0</v>
@@ -44090,7 +44124,7 @@
         <v>5346</v>
       </c>
       <c r="G506" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H506" s="12" t="s">
         <v>0</v>
@@ -44170,7 +44204,7 @@
         <v>5259</v>
       </c>
       <c r="G507" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H507" s="12" t="s">
         <v>0</v>
@@ -44250,7 +44284,7 @@
         <v>5256</v>
       </c>
       <c r="G508" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H508" s="12" t="s">
         <v>0</v>
@@ -44330,7 +44364,7 @@
         <v>5244</v>
       </c>
       <c r="G509" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H509" s="12" t="s">
         <v>0</v>
@@ -44410,7 +44444,7 @@
         <v>5121</v>
       </c>
       <c r="G510" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H510" s="12" t="s">
         <v>0</v>
@@ -44490,7 +44524,7 @@
         <v>4937</v>
       </c>
       <c r="G511" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H511" s="12" t="s">
         <v>0</v>
@@ -44570,7 +44604,7 @@
         <v>4922</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H512" s="12" t="s">
         <v>0</v>
@@ -44650,7 +44684,7 @@
         <v>4879</v>
       </c>
       <c r="G513" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H513" s="12" t="s">
         <v>0</v>
@@ -44730,7 +44764,7 @@
         <v>4846</v>
       </c>
       <c r="G514" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H514" s="12" t="s">
         <v>0</v>
@@ -44810,7 +44844,7 @@
         <v>4818</v>
       </c>
       <c r="G515" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H515" s="12" t="s">
         <v>0</v>
@@ -44890,7 +44924,7 @@
         <v>4801</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H516" s="12" t="s">
         <v>0</v>
@@ -44970,7 +45004,7 @@
         <v>4766</v>
       </c>
       <c r="G517" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H517" s="12" t="s">
         <v>0</v>
@@ -45050,7 +45084,7 @@
         <v>4746</v>
       </c>
       <c r="G518" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H518" s="12" t="s">
         <v>0</v>
@@ -45130,7 +45164,7 @@
         <v>4745</v>
       </c>
       <c r="G519" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H519" s="12" t="s">
         <v>0</v>
@@ -45210,7 +45244,7 @@
         <v>4721</v>
       </c>
       <c r="G520" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H520" s="12" t="s">
         <v>0</v>
@@ -45290,7 +45324,7 @@
         <v>4717</v>
       </c>
       <c r="G521" s="12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H521" s="12" t="s">
         <v>0</v>
@@ -45370,7 +45404,7 @@
         <v>4577</v>
       </c>
       <c r="G522" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H522" s="12" t="s">
         <v>0</v>
@@ -45450,7 +45484,7 @@
         <v>4550</v>
       </c>
       <c r="G523" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H523" s="12" t="s">
         <v>0</v>
@@ -45530,7 +45564,7 @@
         <v>4548</v>
       </c>
       <c r="G524" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H524" s="12" t="s">
         <v>0</v>
@@ -45610,7 +45644,7 @@
         <v>3618</v>
       </c>
       <c r="G525" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H525" s="12" t="s">
         <v>0</v>
@@ -45690,7 +45724,7 @@
         <v>3582</v>
       </c>
       <c r="G526" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H526" s="12" t="s">
         <v>0</v>
@@ -45770,7 +45804,7 @@
         <v>3248</v>
       </c>
       <c r="G527" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H527" s="12" t="s">
         <v>0</v>
@@ -45850,7 +45884,7 @@
         <v>3204</v>
       </c>
       <c r="G528" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H528" s="12" t="s">
         <v>0</v>
@@ -45930,7 +45964,7 @@
         <v>3200</v>
       </c>
       <c r="G529" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H529" s="12" t="s">
         <v>0</v>
@@ -46010,7 +46044,7 @@
         <v>3193</v>
       </c>
       <c r="G530" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H530" s="12" t="s">
         <v>0</v>
@@ -46090,7 +46124,7 @@
         <v>3189</v>
       </c>
       <c r="G531" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H531" s="12" t="s">
         <v>0</v>
@@ -46170,7 +46204,7 @@
         <v>3188</v>
       </c>
       <c r="G532" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H532" s="12" t="s">
         <v>0</v>
@@ -46250,7 +46284,7 @@
         <v>3143</v>
       </c>
       <c r="G533" s="12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H533" s="12" t="s">
         <v>0</v>
@@ -46330,7 +46364,7 @@
         <v>2900</v>
       </c>
       <c r="G534" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H534" s="12" t="s">
         <v>0</v>
@@ -46410,7 +46444,7 @@
         <v>2867</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H535" s="12" t="s">
         <v>0</v>
@@ -46490,7 +46524,7 @@
         <v>2810</v>
       </c>
       <c r="G536" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H536" s="12" t="s">
         <v>0</v>
@@ -46570,7 +46604,7 @@
         <v>2674</v>
       </c>
       <c r="G537" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H537" s="12" t="s">
         <v>0</v>
@@ -46650,7 +46684,7 @@
         <v>2575</v>
       </c>
       <c r="G538" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H538" s="12" t="s">
         <v>0</v>
@@ -46730,7 +46764,7 @@
         <v>2543</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H539" s="12" t="s">
         <v>0</v>
@@ -46810,7 +46844,7 @@
         <v>2439</v>
       </c>
       <c r="G540" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H540" s="12" t="s">
         <v>0</v>
@@ -46890,7 +46924,7 @@
         <v>2438</v>
       </c>
       <c r="G541" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H541" s="12" t="s">
         <v>0</v>
@@ -46970,7 +47004,7 @@
         <v>2403</v>
       </c>
       <c r="G542" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H542" s="12" t="s">
         <v>0</v>
@@ -47050,7 +47084,7 @@
         <v>2394</v>
       </c>
       <c r="G543" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H543" s="12" t="s">
         <v>0</v>
@@ -47130,7 +47164,7 @@
         <v>2153</v>
       </c>
       <c r="G544" s="12" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H544" s="12" t="s">
         <v>0</v>
@@ -47210,7 +47244,7 @@
         <v>2039</v>
       </c>
       <c r="G545" s="12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H545" s="12" t="s">
         <v>0</v>
@@ -47290,7 +47324,7 @@
         <v>2037</v>
       </c>
       <c r="G546" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H546" s="12" t="s">
         <v>0</v>
@@ -47370,7 +47404,7 @@
         <v>2030</v>
       </c>
       <c r="G547" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H547" s="12" t="s">
         <v>0</v>
@@ -47450,7 +47484,7 @@
         <v>2018</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H548" s="12" t="s">
         <v>0</v>
@@ -47530,7 +47564,7 @@
         <v>2017</v>
       </c>
       <c r="G549" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H549" s="12" t="s">
         <v>0</v>
@@ -47610,7 +47644,7 @@
         <v>2015</v>
       </c>
       <c r="G550" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H550" s="12" t="s">
         <v>0</v>
@@ -47690,7 +47724,7 @@
         <v>2011</v>
       </c>
       <c r="G551" s="12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H551" s="12" t="s">
         <v>0</v>
@@ -47770,7 +47804,7 @@
         <v>2001</v>
       </c>
       <c r="G552" s="12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H552" s="12" t="s">
         <v>0</v>
@@ -47850,7 +47884,7 @@
         <v>1996</v>
       </c>
       <c r="G553" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H553" s="12" t="s">
         <v>0</v>
@@ -47930,7 +47964,7 @@
         <v>1981</v>
       </c>
       <c r="G554" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H554" s="12" t="s">
         <v>0</v>
@@ -48010,7 +48044,7 @@
         <v>1967</v>
       </c>
       <c r="G555" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H555" s="12" t="s">
         <v>0</v>
@@ -48090,7 +48124,7 @@
         <v>1941</v>
       </c>
       <c r="G556" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H556" s="12" t="s">
         <v>0</v>
@@ -48170,7 +48204,7 @@
         <v>1912</v>
       </c>
       <c r="G557" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H557" s="12" t="s">
         <v>0</v>
@@ -48250,7 +48284,7 @@
         <v>1909</v>
       </c>
       <c r="G558" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H558" s="12" t="s">
         <v>0</v>
@@ -48330,7 +48364,7 @@
         <v>1878</v>
       </c>
       <c r="G559" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H559" s="12" t="s">
         <v>0</v>
@@ -48410,7 +48444,7 @@
         <v>1875</v>
       </c>
       <c r="G560" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H560" s="12" t="s">
         <v>0</v>
@@ -48490,7 +48524,7 @@
         <v>1872</v>
       </c>
       <c r="G561" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H561" s="12" t="s">
         <v>0</v>
@@ -48570,7 +48604,7 @@
         <v>1862</v>
       </c>
       <c r="G562" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H562" s="12" t="s">
         <v>0</v>
@@ -48650,7 +48684,7 @@
         <v>1846</v>
       </c>
       <c r="G563" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H563" s="12" t="s">
         <v>0</v>
@@ -48730,7 +48764,7 @@
         <v>1840</v>
       </c>
       <c r="G564" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H564" s="12" t="s">
         <v>0</v>
@@ -48810,7 +48844,7 @@
         <v>1815</v>
       </c>
       <c r="G565" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H565" s="12" t="s">
         <v>0</v>
@@ -48890,7 +48924,7 @@
         <v>1805</v>
       </c>
       <c r="G566" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H566" s="12" t="s">
         <v>0</v>
@@ -48970,7 +49004,7 @@
         <v>1799</v>
       </c>
       <c r="G567" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H567" s="12" t="s">
         <v>0</v>
@@ -49050,7 +49084,7 @@
         <v>1793</v>
       </c>
       <c r="G568" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H568" s="12" t="s">
         <v>0</v>
@@ -49130,7 +49164,7 @@
         <v>1772</v>
       </c>
       <c r="G569" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H569" s="12" t="s">
         <v>0</v>
@@ -49210,7 +49244,7 @@
         <v>1771</v>
       </c>
       <c r="G570" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H570" s="12" t="s">
         <v>0</v>
@@ -49290,7 +49324,7 @@
         <v>1760</v>
       </c>
       <c r="G571" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H571" s="12" t="s">
         <v>0</v>
@@ -49370,7 +49404,7 @@
         <v>1740</v>
       </c>
       <c r="G572" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H572" s="12" t="s">
         <v>0</v>
@@ -49450,7 +49484,7 @@
         <v>1717</v>
       </c>
       <c r="G573" s="12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H573" s="12" t="s">
         <v>0</v>
@@ -49530,7 +49564,7 @@
         <v>1709</v>
       </c>
       <c r="G574" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H574" s="12" t="s">
         <v>0</v>
@@ -49610,7 +49644,7 @@
         <v>1706</v>
       </c>
       <c r="G575" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H575" s="12" t="s">
         <v>0</v>
@@ -49690,7 +49724,7 @@
         <v>1704</v>
       </c>
       <c r="G576" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H576" s="12" t="s">
         <v>0</v>
@@ -49770,7 +49804,7 @@
         <v>1702</v>
       </c>
       <c r="G577" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H577" s="12" t="s">
         <v>0</v>
@@ -49850,7 +49884,7 @@
         <v>1700</v>
       </c>
       <c r="G578" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H578" s="12" t="s">
         <v>0</v>
@@ -49930,7 +49964,7 @@
         <v>1380</v>
       </c>
       <c r="G579" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H579" s="12" t="s">
         <v>0</v>
@@ -50010,7 +50044,7 @@
         <v>1064</v>
       </c>
       <c r="G580" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H580" s="12" t="s">
         <v>0</v>
@@ -50090,7 +50124,7 @@
         <v>592</v>
       </c>
       <c r="G581" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H581" s="12" t="s">
         <v>0</v>
@@ -50170,7 +50204,7 @@
         <v>479</v>
       </c>
       <c r="G582" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H582" s="12" t="s">
         <v>0</v>
@@ -50250,7 +50284,7 @@
         <v>473</v>
       </c>
       <c r="G583" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H583" s="12" t="s">
         <v>0</v>
@@ -50330,7 +50364,7 @@
         <v>469</v>
       </c>
       <c r="G584" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H584" s="12" t="s">
         <v>0</v>
@@ -50410,7 +50444,7 @@
         <v>458</v>
       </c>
       <c r="G585" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H585" s="12" t="s">
         <v>0</v>
@@ -50490,7 +50524,7 @@
         <v>453</v>
       </c>
       <c r="G586" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H586" s="12" t="s">
         <v>0</v>
@@ -50570,7 +50604,7 @@
         <v>443</v>
       </c>
       <c r="G587" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H587" s="12" t="s">
         <v>0</v>
@@ -50650,7 +50684,7 @@
         <v>307</v>
       </c>
       <c r="G588" s="12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H588" s="12" t="s">
         <v>0</v>
@@ -50730,7 +50764,7 @@
         <v>299</v>
       </c>
       <c r="G589" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H589" s="12" t="s">
         <v>0</v>
@@ -50810,7 +50844,7 @@
         <v>257</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H590" s="12" t="s">
         <v>0</v>
@@ -50890,7 +50924,7 @@
         <v>228</v>
       </c>
       <c r="G591" s="12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H591" s="12" t="s">
         <v>0</v>
@@ -50970,7 +51004,7 @@
         <v>168</v>
       </c>
       <c r="G592" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H592" s="12" t="s">
         <v>0</v>
@@ -51050,7 +51084,7 @@
         <v>160</v>
       </c>
       <c r="G593" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H593" s="12" t="s">
         <v>0</v>
@@ -51130,7 +51164,7 @@
         <v>137</v>
       </c>
       <c r="G594" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H594" s="12" t="s">
         <v>0</v>
@@ -51210,7 +51244,7 @@
         <v>134</v>
       </c>
       <c r="G595" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H595" s="12" t="s">
         <v>0</v>
@@ -51290,7 +51324,7 @@
         <v>68</v>
       </c>
       <c r="G596" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H596" s="12" t="s">
         <v>0</v>
@@ -51370,7 +51404,7 @@
         <v>54</v>
       </c>
       <c r="G597" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H597" s="12" t="s">
         <v>0</v>
@@ -51450,7 +51484,7 @@
         <v>39</v>
       </c>
       <c r="G598" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H598" s="12" t="s">
         <v>0</v>

--- a/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
+++ b/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
@@ -3470,7 +3470,7 @@
     <t>sampleID</t>
   </si>
   <si>
-    <t>PubChem_id</t>
+    <t>PubChem</t>
   </si>
 </sst>
 </file>

--- a/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
+++ b/data/two independent group/mx_274941_Francisco Portell_human cells_06-2016_submit.xlsx
@@ -3467,10 +3467,10 @@
     <t>KnownorUnknown</t>
   </si>
   <si>
-    <t>sampleID</t>
-  </si>
-  <si>
     <t>PubChem</t>
+  </si>
+  <si>
+    <t>subjectID</t>
   </si>
 </sst>
 </file>
@@ -3920,7 +3920,7 @@
   <dimension ref="A1:Z598"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J2" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>2</v>
